--- a/Data/branch_wise_aging_stock_copy.xlsx
+++ b/Data/branch_wise_aging_stock_copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="151">
   <si>
     <t>BSL NO</t>
   </si>
@@ -956,25 +956,25 @@
         <v>70</v>
       </c>
       <c r="I2">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="J2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K2">
         <v>158</v>
       </c>
       <c r="L2">
-        <v>157</v>
+        <v>611</v>
       </c>
       <c r="M2">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N2">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="O2">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="P2">
         <v>91</v>
@@ -983,16 +983,16 @@
         <v>150</v>
       </c>
       <c r="R2">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="S2">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="T2">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="U2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="V2">
         <v>72</v>
@@ -1004,34 +1004,34 @@
         <v>114</v>
       </c>
       <c r="Y2">
-        <v>1817</v>
+        <v>1097</v>
       </c>
       <c r="Z2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AA2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AB2">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="AC2">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="AD2">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="AE2">
-        <v>454</v>
+        <v>194</v>
       </c>
       <c r="AF2">
         <v>93</v>
       </c>
       <c r="AG2">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="AH2">
-        <v>176</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -1054,79 +1054,79 @@
         <v>366</v>
       </c>
       <c r="J3">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="K3">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="L3">
-        <v>1234</v>
+        <v>1146</v>
       </c>
       <c r="M3">
-        <v>1049</v>
+        <v>990</v>
       </c>
       <c r="N3">
-        <v>1131</v>
+        <v>1085</v>
       </c>
       <c r="O3">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="P3">
         <v>441</v>
       </c>
       <c r="Q3">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="R3">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="S3">
-        <v>1120</v>
+        <v>1086</v>
       </c>
       <c r="T3">
         <v>168</v>
       </c>
       <c r="U3">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="V3">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="W3">
         <v>319</v>
       </c>
       <c r="X3">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y3">
-        <v>5509</v>
+        <v>5263</v>
       </c>
       <c r="Z3">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AA3">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AB3">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AC3">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AD3">
-        <v>821</v>
+        <v>777</v>
       </c>
       <c r="AE3">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AF3">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="AG3">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AH3">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -1152,22 +1152,22 @@
         <v>238</v>
       </c>
       <c r="J4">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K4">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="L4">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M4">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="N4">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O4">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="P4">
         <v>169</v>
@@ -1176,16 +1176,16 @@
         <v>121</v>
       </c>
       <c r="R4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S4">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="T4">
         <v>208</v>
       </c>
       <c r="U4">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="V4">
         <v>113</v>
@@ -1197,34 +1197,34 @@
         <v>163</v>
       </c>
       <c r="Y4">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="Z4">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AA4">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB4">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="AC4">
         <v>103</v>
       </c>
       <c r="AD4">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AE4">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AF4">
         <v>170</v>
       </c>
       <c r="AG4">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AH4">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1247,82 +1247,82 @@
         <v>73</v>
       </c>
       <c r="I5">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J5">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K5">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L5">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="M5">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N5">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="O5">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P5">
         <v>172</v>
       </c>
       <c r="Q5">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R5">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S5">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="T5">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="U5">
         <v>162</v>
       </c>
       <c r="V5">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W5">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X5">
         <v>310</v>
       </c>
       <c r="Y5">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="Z5">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AA5">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AB5">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AC5">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD5">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="AE5">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AF5">
         <v>157</v>
       </c>
       <c r="AG5">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AH5">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1345,82 +1345,82 @@
         <v>74</v>
       </c>
       <c r="I6">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J6">
-        <v>1322</v>
+        <v>1295</v>
       </c>
       <c r="K6">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="L6">
-        <v>1185</v>
+        <v>1149</v>
       </c>
       <c r="M6">
-        <v>760</v>
+        <v>729</v>
       </c>
       <c r="N6">
-        <v>786</v>
+        <v>729</v>
       </c>
       <c r="O6">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="P6">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="Q6">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="R6">
-        <v>2140</v>
+        <v>2126</v>
       </c>
       <c r="S6">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="T6">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="U6">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="V6">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="W6">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="X6">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="Y6">
-        <v>687</v>
+        <v>5149</v>
       </c>
       <c r="Z6">
+        <v>324</v>
+      </c>
+      <c r="AA6">
+        <v>387</v>
+      </c>
+      <c r="AB6">
+        <v>345</v>
+      </c>
+      <c r="AC6">
+        <v>542</v>
+      </c>
+      <c r="AD6">
+        <v>1006</v>
+      </c>
+      <c r="AE6">
+        <v>767</v>
+      </c>
+      <c r="AF6">
+        <v>362</v>
+      </c>
+      <c r="AG6">
+        <v>734</v>
+      </c>
+      <c r="AH6">
         <v>367</v>
-      </c>
-      <c r="AA6">
-        <v>407</v>
-      </c>
-      <c r="AB6">
-        <v>370</v>
-      </c>
-      <c r="AC6">
-        <v>552</v>
-      </c>
-      <c r="AD6">
-        <v>1064</v>
-      </c>
-      <c r="AE6">
-        <v>803</v>
-      </c>
-      <c r="AF6">
-        <v>375</v>
-      </c>
-      <c r="AG6">
-        <v>760</v>
-      </c>
-      <c r="AH6">
-        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1440,82 +1440,79 @@
         <v>75</v>
       </c>
       <c r="I7">
-        <v>640</v>
+        <v>571</v>
       </c>
       <c r="J7">
-        <v>428</v>
+        <v>236</v>
       </c>
       <c r="K7">
-        <v>809</v>
+        <v>701</v>
       </c>
       <c r="L7">
-        <v>586</v>
+        <v>509</v>
       </c>
       <c r="M7">
-        <v>668</v>
+        <v>543</v>
       </c>
       <c r="N7">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="O7">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="P7">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="Q7">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="R7">
-        <v>517</v>
+        <v>405</v>
       </c>
       <c r="S7">
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="T7">
-        <v>781</v>
+        <v>702</v>
       </c>
       <c r="U7">
-        <v>406</v>
+        <v>759</v>
       </c>
       <c r="V7">
-        <v>650</v>
+        <v>577</v>
       </c>
       <c r="W7">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="X7">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="Y7">
-        <v>662</v>
-      </c>
-      <c r="Z7">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="AA7">
-        <v>618</v>
+        <v>519</v>
       </c>
       <c r="AB7">
-        <v>630</v>
+        <v>358</v>
       </c>
       <c r="AC7">
-        <v>582</v>
+        <v>500</v>
       </c>
       <c r="AD7">
-        <v>462</v>
+        <v>338</v>
       </c>
       <c r="AE7">
-        <v>620</v>
+        <v>515</v>
       </c>
       <c r="AF7">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="AG7">
-        <v>556</v>
+        <v>491</v>
       </c>
       <c r="AH7">
-        <v>390</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1565,7 +1562,7 @@
         <v>84</v>
       </c>
       <c r="R8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S8">
         <v>88</v>
@@ -1586,22 +1583,22 @@
         <v>22</v>
       </c>
       <c r="Y8">
-        <v>2906</v>
+        <v>2875</v>
       </c>
       <c r="Z8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA8">
         <v>56</v>
       </c>
       <c r="AB8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AC8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE8">
         <v>44</v>
@@ -1636,79 +1633,79 @@
         <v>77</v>
       </c>
       <c r="I9">
-        <v>179</v>
+        <v>494</v>
       </c>
       <c r="J9">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="K9">
-        <v>309</v>
+        <v>438</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="M9">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="N9">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="O9">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="P9">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="Q9">
-        <v>564</v>
+        <v>677</v>
       </c>
       <c r="R9">
-        <v>360</v>
+        <v>479</v>
       </c>
       <c r="S9">
-        <v>207</v>
+        <v>339</v>
       </c>
       <c r="T9">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="U9">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="V9">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="W9">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="X9">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="Y9">
-        <v>1879</v>
+        <v>669</v>
       </c>
       <c r="Z9">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="AA9">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="AB9">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="AC9">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="AD9">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="AE9">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="AF9">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AG9">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="AH9">
         <v>350</v>
@@ -1734,7 +1731,7 @@
         <v>78</v>
       </c>
       <c r="I10">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J10">
         <v>170</v>
@@ -1743,22 +1740,22 @@
         <v>112</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M10">
         <v>99</v>
       </c>
       <c r="N10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q10">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R10">
         <v>34</v>
@@ -1767,13 +1764,13 @@
         <v>94</v>
       </c>
       <c r="T10">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U10">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V10">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W10">
         <v>42</v>
@@ -1782,7 +1779,7 @@
         <v>135</v>
       </c>
       <c r="Y10">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Z10">
         <v>102</v>
@@ -1791,10 +1788,10 @@
         <v>29</v>
       </c>
       <c r="AB10">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AC10">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AD10">
         <v>124</v>
@@ -1806,10 +1803,10 @@
         <v>21</v>
       </c>
       <c r="AG10">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AH10">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1832,82 +1829,82 @@
         <v>79</v>
       </c>
       <c r="I11">
-        <v>256</v>
+        <v>477</v>
       </c>
       <c r="J11">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="K11">
-        <v>313</v>
+        <v>684</v>
       </c>
       <c r="L11">
-        <v>294</v>
+        <v>498</v>
       </c>
       <c r="M11">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="N11">
-        <v>154</v>
+        <v>515</v>
       </c>
       <c r="O11">
-        <v>278</v>
+        <v>473</v>
       </c>
       <c r="P11">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="Q11">
-        <v>1303</v>
+        <v>1246</v>
       </c>
       <c r="R11">
-        <v>389</v>
+        <v>511</v>
       </c>
       <c r="S11">
-        <v>649</v>
+        <v>784</v>
       </c>
       <c r="T11">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="U11">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="V11">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="W11">
-        <v>637</v>
+        <v>591</v>
       </c>
       <c r="X11">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="Y11">
-        <v>2712</v>
+        <v>1261</v>
       </c>
       <c r="Z11">
-        <v>813</v>
+        <v>778</v>
       </c>
       <c r="AA11">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="AB11">
-        <v>658</v>
+        <v>616</v>
       </c>
       <c r="AC11">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="AD11">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="AE11">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="AF11">
-        <v>435</v>
+        <v>670</v>
       </c>
       <c r="AG11">
-        <v>717</v>
+        <v>670</v>
       </c>
       <c r="AH11">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1927,82 +1924,82 @@
         <v>80</v>
       </c>
       <c r="I12">
+        <v>88</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <v>117</v>
+      </c>
+      <c r="M12">
+        <v>140</v>
+      </c>
+      <c r="N12">
+        <v>111</v>
+      </c>
+      <c r="O12">
+        <v>105</v>
+      </c>
+      <c r="P12">
+        <v>152</v>
+      </c>
+      <c r="Q12">
+        <v>219</v>
+      </c>
+      <c r="R12">
+        <v>97</v>
+      </c>
+      <c r="S12">
+        <v>96</v>
+      </c>
+      <c r="T12">
+        <v>132</v>
+      </c>
+      <c r="U12">
+        <v>153</v>
+      </c>
+      <c r="V12">
+        <v>44</v>
+      </c>
+      <c r="W12">
         <v>89</v>
       </c>
-      <c r="J12">
-        <v>105</v>
-      </c>
-      <c r="K12">
-        <v>118</v>
-      </c>
-      <c r="L12">
-        <v>126</v>
-      </c>
-      <c r="M12">
-        <v>143</v>
-      </c>
-      <c r="N12">
-        <v>116</v>
-      </c>
-      <c r="O12">
-        <v>114</v>
-      </c>
-      <c r="P12">
+      <c r="X12">
+        <v>94</v>
+      </c>
+      <c r="Y12">
+        <v>368</v>
+      </c>
+      <c r="Z12">
+        <v>122</v>
+      </c>
+      <c r="AA12">
+        <v>94</v>
+      </c>
+      <c r="AB12">
+        <v>213</v>
+      </c>
+      <c r="AC12">
+        <v>71</v>
+      </c>
+      <c r="AD12">
+        <v>117</v>
+      </c>
+      <c r="AE12">
+        <v>110</v>
+      </c>
+      <c r="AF12">
         <v>155</v>
       </c>
-      <c r="Q12">
-        <v>227</v>
-      </c>
-      <c r="R12">
-        <v>103</v>
-      </c>
-      <c r="S12">
-        <v>110</v>
-      </c>
-      <c r="T12">
-        <v>135</v>
-      </c>
-      <c r="U12">
-        <v>155</v>
-      </c>
-      <c r="V12">
-        <v>47</v>
-      </c>
-      <c r="W12">
-        <v>90</v>
-      </c>
-      <c r="X12">
-        <v>95</v>
-      </c>
-      <c r="Y12">
-        <v>388</v>
-      </c>
-      <c r="Z12">
-        <v>129</v>
-      </c>
-      <c r="AA12">
-        <v>96</v>
-      </c>
-      <c r="AB12">
-        <v>223</v>
-      </c>
-      <c r="AC12">
-        <v>72</v>
-      </c>
-      <c r="AD12">
-        <v>126</v>
-      </c>
-      <c r="AE12">
-        <v>114</v>
-      </c>
-      <c r="AF12">
-        <v>157</v>
-      </c>
       <c r="AG12">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AH12">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -2025,82 +2022,82 @@
         <v>81</v>
       </c>
       <c r="I13">
-        <v>1476</v>
+        <v>1389</v>
       </c>
       <c r="J13">
-        <v>1601</v>
+        <v>1203</v>
       </c>
       <c r="K13">
-        <v>1005</v>
+        <v>830</v>
       </c>
       <c r="L13">
-        <v>1660</v>
+        <v>1597</v>
       </c>
       <c r="M13">
-        <v>1629</v>
+        <v>1552</v>
       </c>
       <c r="N13">
-        <v>1938</v>
+        <v>1867</v>
       </c>
       <c r="O13">
-        <v>1216</v>
+        <v>1501</v>
       </c>
       <c r="P13">
-        <v>1063</v>
+        <v>1018</v>
       </c>
       <c r="Q13">
-        <v>1582</v>
+        <v>1441</v>
       </c>
       <c r="R13">
-        <v>802</v>
+        <v>662</v>
       </c>
       <c r="S13">
-        <v>885</v>
+        <v>764</v>
       </c>
       <c r="T13">
-        <v>707</v>
+        <v>630</v>
       </c>
       <c r="U13">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="V13">
-        <v>1281</v>
+        <v>1053</v>
       </c>
       <c r="W13">
-        <v>783</v>
+        <v>680</v>
       </c>
       <c r="X13">
-        <v>749</v>
+        <v>703</v>
       </c>
       <c r="Y13">
-        <v>635</v>
+        <v>503</v>
       </c>
       <c r="Z13">
-        <v>1419</v>
+        <v>1360</v>
       </c>
       <c r="AA13">
-        <v>1509</v>
+        <v>1392</v>
       </c>
       <c r="AB13">
-        <v>2065</v>
+        <v>1982</v>
       </c>
       <c r="AC13">
-        <v>1217</v>
+        <v>1067</v>
       </c>
       <c r="AD13">
-        <v>430</v>
+        <v>151</v>
       </c>
       <c r="AE13">
-        <v>984</v>
+        <v>931</v>
       </c>
       <c r="AF13">
-        <v>1319</v>
+        <v>1301</v>
       </c>
       <c r="AG13">
-        <v>1672</v>
+        <v>1572</v>
       </c>
       <c r="AH13">
-        <v>1921</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -2123,82 +2120,82 @@
         <v>82</v>
       </c>
       <c r="I14">
-        <v>3057</v>
+        <v>2983</v>
       </c>
       <c r="J14">
-        <v>1520</v>
+        <v>1302</v>
       </c>
       <c r="K14">
-        <v>2440</v>
+        <v>2387</v>
       </c>
       <c r="L14">
-        <v>2490</v>
+        <v>2451</v>
       </c>
       <c r="M14">
-        <v>2242</v>
+        <v>2226</v>
       </c>
       <c r="N14">
-        <v>2642</v>
+        <v>2605</v>
       </c>
       <c r="O14">
-        <v>2300</v>
+        <v>2020</v>
       </c>
       <c r="P14">
-        <v>2982</v>
+        <v>2978</v>
       </c>
       <c r="Q14">
-        <v>1676</v>
+        <v>1634</v>
       </c>
       <c r="R14">
-        <v>2642</v>
+        <v>2593</v>
       </c>
       <c r="S14">
-        <v>1828</v>
+        <v>1766</v>
       </c>
       <c r="T14">
-        <v>2493</v>
+        <v>2340</v>
       </c>
       <c r="U14">
-        <v>1140</v>
+        <v>1104</v>
       </c>
       <c r="V14">
-        <v>2552</v>
+        <v>2528</v>
       </c>
       <c r="W14">
-        <v>2227</v>
+        <v>2163</v>
       </c>
       <c r="X14">
-        <v>1700</v>
+        <v>1539</v>
       </c>
       <c r="Y14">
-        <v>2335</v>
+        <v>2285</v>
       </c>
       <c r="Z14">
         <v>3409</v>
       </c>
       <c r="AA14">
-        <v>2563</v>
+        <v>2544</v>
       </c>
       <c r="AB14">
-        <v>1645</v>
+        <v>1633</v>
       </c>
       <c r="AC14">
-        <v>1352</v>
+        <v>1213</v>
       </c>
       <c r="AD14">
-        <v>2018</v>
+        <v>1851</v>
       </c>
       <c r="AE14">
         <v>2475</v>
       </c>
       <c r="AF14">
-        <v>2305</v>
+        <v>2291</v>
       </c>
       <c r="AG14">
-        <v>2057</v>
+        <v>1901</v>
       </c>
       <c r="AH14">
-        <v>2518</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2221,82 +2218,82 @@
         <v>83</v>
       </c>
       <c r="I15">
-        <v>3265</v>
+        <v>3181</v>
       </c>
       <c r="J15">
-        <v>6484</v>
+        <v>6159</v>
       </c>
       <c r="K15">
-        <v>6015</v>
+        <v>5925</v>
       </c>
       <c r="L15">
-        <v>1978</v>
+        <v>1839</v>
       </c>
       <c r="M15">
-        <v>2964</v>
+        <v>2756</v>
       </c>
       <c r="N15">
-        <v>5399</v>
+        <v>5188</v>
       </c>
       <c r="O15">
-        <v>4110</v>
+        <v>4015</v>
       </c>
       <c r="P15">
-        <v>6979</v>
+        <v>6905</v>
       </c>
       <c r="Q15">
-        <v>6074</v>
+        <v>5817</v>
       </c>
       <c r="R15">
-        <v>2469</v>
+        <v>2396</v>
       </c>
       <c r="S15">
-        <v>7144</v>
+        <v>7059</v>
       </c>
       <c r="T15">
-        <v>4783</v>
+        <v>4673</v>
       </c>
       <c r="U15">
-        <v>4569</v>
+        <v>4339</v>
       </c>
       <c r="V15">
-        <v>4238</v>
+        <v>4158</v>
       </c>
       <c r="W15">
-        <v>1838</v>
+        <v>1778</v>
       </c>
       <c r="X15">
-        <v>3976</v>
+        <v>3847</v>
       </c>
       <c r="Y15">
-        <v>4908</v>
+        <v>4775</v>
       </c>
       <c r="Z15">
-        <v>4458</v>
+        <v>4379</v>
       </c>
       <c r="AA15">
-        <v>3841</v>
+        <v>3768</v>
       </c>
       <c r="AB15">
-        <v>3863</v>
+        <v>3723</v>
       </c>
       <c r="AC15">
-        <v>3350</v>
+        <v>3288</v>
       </c>
       <c r="AD15">
-        <v>2559</v>
+        <v>2439</v>
       </c>
       <c r="AE15">
-        <v>3636</v>
+        <v>3526</v>
       </c>
       <c r="AF15">
-        <v>5528</v>
+        <v>5412</v>
       </c>
       <c r="AG15">
-        <v>2178</v>
+        <v>2065</v>
       </c>
       <c r="AH15">
-        <v>3597</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2319,82 +2316,82 @@
         <v>84</v>
       </c>
       <c r="I16">
-        <v>870</v>
+        <v>1264</v>
       </c>
       <c r="J16">
-        <v>2303</v>
+        <v>2238</v>
       </c>
       <c r="K16">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="L16">
-        <v>1372</v>
+        <v>1342</v>
       </c>
       <c r="M16">
-        <v>1475</v>
+        <v>1427</v>
       </c>
       <c r="N16">
-        <v>1488</v>
+        <v>1438</v>
       </c>
       <c r="O16">
-        <v>772</v>
+        <v>1164</v>
       </c>
       <c r="P16">
-        <v>875</v>
+        <v>847</v>
       </c>
       <c r="Q16">
-        <v>1819</v>
+        <v>1721</v>
       </c>
       <c r="R16">
-        <v>814</v>
+        <v>777</v>
       </c>
       <c r="S16">
-        <v>1278</v>
+        <v>1235</v>
       </c>
       <c r="T16">
-        <v>997</v>
+        <v>935</v>
       </c>
       <c r="U16">
-        <v>803</v>
+        <v>729</v>
       </c>
       <c r="V16">
-        <v>1212</v>
+        <v>1178</v>
       </c>
       <c r="W16">
-        <v>1208</v>
+        <v>1164</v>
       </c>
       <c r="X16">
-        <v>1515</v>
+        <v>1445</v>
       </c>
       <c r="Y16">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="Z16">
-        <v>926</v>
+        <v>899</v>
       </c>
       <c r="AA16">
-        <v>1209</v>
+        <v>1161</v>
       </c>
       <c r="AB16">
-        <v>1225</v>
+        <v>1163</v>
       </c>
       <c r="AC16">
-        <v>2140</v>
+        <v>2110</v>
       </c>
       <c r="AD16">
-        <v>2401</v>
+        <v>1514</v>
       </c>
       <c r="AE16">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="AF16">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="AG16">
-        <v>1386</v>
+        <v>1295</v>
       </c>
       <c r="AH16">
-        <v>1525</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2417,82 +2414,82 @@
         <v>85</v>
       </c>
       <c r="I17">
-        <v>2688</v>
+        <v>2589</v>
       </c>
       <c r="J17">
-        <v>6779</v>
+        <v>6572</v>
       </c>
       <c r="K17">
-        <v>2723</v>
+        <v>3934</v>
       </c>
       <c r="L17">
-        <v>2676</v>
+        <v>2558</v>
       </c>
       <c r="M17">
-        <v>3221</v>
+        <v>3111</v>
       </c>
       <c r="N17">
-        <v>2187</v>
+        <v>2063</v>
       </c>
       <c r="O17">
-        <v>3057</v>
+        <v>2885</v>
       </c>
       <c r="P17">
-        <v>3475</v>
+        <v>3394</v>
       </c>
       <c r="Q17">
-        <v>5671</v>
+        <v>5448</v>
       </c>
       <c r="R17">
-        <v>4109</v>
+        <v>4025</v>
       </c>
       <c r="S17">
-        <v>3650</v>
+        <v>4180</v>
       </c>
       <c r="T17">
-        <v>2581</v>
+        <v>2461</v>
       </c>
       <c r="U17">
-        <v>1231</v>
+        <v>1085</v>
       </c>
       <c r="V17">
-        <v>4570</v>
+        <v>4466</v>
       </c>
       <c r="W17">
-        <v>2580</v>
+        <v>2510</v>
       </c>
       <c r="X17">
-        <v>2054</v>
+        <v>1902</v>
       </c>
       <c r="Y17">
-        <v>2656</v>
+        <v>7822</v>
       </c>
       <c r="Z17">
-        <v>727</v>
+        <v>1969</v>
       </c>
       <c r="AA17">
-        <v>3192</v>
+        <v>3083</v>
       </c>
       <c r="AB17">
-        <v>3020</v>
+        <v>2900</v>
       </c>
       <c r="AC17">
-        <v>5951</v>
+        <v>5869</v>
       </c>
       <c r="AD17">
-        <v>2565</v>
+        <v>2440</v>
       </c>
       <c r="AE17">
-        <v>2892</v>
+        <v>2789</v>
       </c>
       <c r="AF17">
-        <v>4540</v>
+        <v>4494</v>
       </c>
       <c r="AG17">
-        <v>2132</v>
+        <v>1965</v>
       </c>
       <c r="AH17">
-        <v>2170</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2515,10 +2512,10 @@
         <v>86</v>
       </c>
       <c r="I18">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J18">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="K18">
         <v>324</v>
@@ -2530,67 +2527,67 @@
         <v>217</v>
       </c>
       <c r="N18">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O18">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="P18">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q18">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="R18">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="S18">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="T18">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="U18">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="V18">
+        <v>370</v>
+      </c>
+      <c r="W18">
+        <v>223</v>
+      </c>
+      <c r="X18">
+        <v>664</v>
+      </c>
+      <c r="Y18">
+        <v>3685</v>
+      </c>
+      <c r="Z18">
+        <v>355</v>
+      </c>
+      <c r="AA18">
         <v>371</v>
       </c>
-      <c r="W18">
+      <c r="AB18">
+        <v>316</v>
+      </c>
+      <c r="AC18">
+        <v>446</v>
+      </c>
+      <c r="AD18">
+        <v>553</v>
+      </c>
+      <c r="AE18">
+        <v>103</v>
+      </c>
+      <c r="AF18">
+        <v>147</v>
+      </c>
+      <c r="AG18">
+        <v>544</v>
+      </c>
+      <c r="AH18">
         <v>228</v>
-      </c>
-      <c r="X18">
-        <v>675</v>
-      </c>
-      <c r="Y18">
-        <v>3687</v>
-      </c>
-      <c r="Z18">
-        <v>366</v>
-      </c>
-      <c r="AA18">
-        <v>373</v>
-      </c>
-      <c r="AB18">
-        <v>326</v>
-      </c>
-      <c r="AC18">
-        <v>451</v>
-      </c>
-      <c r="AD18">
-        <v>561</v>
-      </c>
-      <c r="AE18">
-        <v>104</v>
-      </c>
-      <c r="AF18">
-        <v>154</v>
-      </c>
-      <c r="AG18">
-        <v>550</v>
-      </c>
-      <c r="AH18">
-        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2613,82 +2610,82 @@
         <v>87</v>
       </c>
       <c r="I19">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="J19">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K19">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L19">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M19">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N19">
         <v>349</v>
       </c>
       <c r="O19">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P19">
         <v>235</v>
       </c>
       <c r="Q19">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R19">
         <v>189</v>
       </c>
       <c r="S19">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T19">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="U19">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V19">
         <v>377</v>
       </c>
       <c r="W19">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="X19">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Y19">
         <v>1312</v>
       </c>
       <c r="Z19">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AA19">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AB19">
         <v>674</v>
       </c>
       <c r="AC19">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AD19">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="AE19">
         <v>174</v>
       </c>
       <c r="AF19">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG19">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AH19">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2711,82 +2708,82 @@
         <v>88</v>
       </c>
       <c r="I20">
-        <v>5990</v>
+        <v>6749</v>
       </c>
       <c r="J20">
-        <v>9248</v>
+        <v>8914</v>
       </c>
       <c r="K20">
-        <v>10294</v>
+        <v>10966</v>
       </c>
       <c r="L20">
-        <v>7568</v>
+        <v>7129</v>
       </c>
       <c r="M20">
-        <v>12078</v>
+        <v>11693</v>
       </c>
       <c r="N20">
-        <v>9834</v>
+        <v>9263</v>
       </c>
       <c r="O20">
-        <v>7137</v>
+        <v>6782</v>
       </c>
       <c r="P20">
-        <v>7965</v>
+        <v>7809</v>
       </c>
       <c r="Q20">
-        <v>7724</v>
+        <v>7276</v>
       </c>
       <c r="R20">
-        <v>5972</v>
+        <v>6242</v>
       </c>
       <c r="S20">
-        <v>9325</v>
+        <v>10469</v>
       </c>
       <c r="T20">
-        <v>4930</v>
+        <v>4801</v>
       </c>
       <c r="U20">
-        <v>4903</v>
+        <v>4725</v>
       </c>
       <c r="V20">
-        <v>4317</v>
+        <v>4223</v>
       </c>
       <c r="W20">
-        <v>4694</v>
+        <v>4449</v>
       </c>
       <c r="X20">
-        <v>6944</v>
+        <v>6812</v>
       </c>
       <c r="Y20">
-        <v>12455</v>
+        <v>3425</v>
       </c>
       <c r="Z20">
-        <v>3216</v>
+        <v>3165</v>
       </c>
       <c r="AA20">
-        <v>5435</v>
+        <v>5181</v>
       </c>
       <c r="AB20">
-        <v>2950</v>
+        <v>4054</v>
       </c>
       <c r="AC20">
-        <v>7693</v>
+        <v>7302</v>
       </c>
       <c r="AD20">
-        <v>8335</v>
+        <v>7979</v>
       </c>
       <c r="AE20">
-        <v>4416</v>
+        <v>3896</v>
       </c>
       <c r="AF20">
-        <v>5422</v>
+        <v>5358</v>
       </c>
       <c r="AG20">
-        <v>7043</v>
+        <v>6866</v>
       </c>
       <c r="AH20">
-        <v>5718</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2809,82 +2806,79 @@
         <v>89</v>
       </c>
       <c r="I21">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="J21">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="K21">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L21">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="M21">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="N21">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="O21">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="P21">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="Q21">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="R21">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="S21">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="T21">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="U21">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="V21">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="W21">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="X21">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="Y21">
-        <v>512</v>
+        <v>211</v>
       </c>
       <c r="Z21">
-        <v>203</v>
-      </c>
-      <c r="AA21">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="AB21">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AC21">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AD21">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="AE21">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AF21">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="AG21">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="AH21">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2907,82 +2901,82 @@
         <v>90</v>
       </c>
       <c r="I22">
-        <v>5704</v>
+        <v>6998</v>
       </c>
       <c r="J22">
-        <v>11360</v>
+        <v>11128</v>
       </c>
       <c r="K22">
-        <v>5635</v>
+        <v>7294</v>
       </c>
       <c r="L22">
-        <v>5683</v>
+        <v>5520</v>
       </c>
       <c r="M22">
-        <v>5582</v>
+        <v>5442</v>
       </c>
       <c r="N22">
-        <v>6707</v>
+        <v>6421</v>
       </c>
       <c r="O22">
-        <v>7078</v>
+        <v>6932</v>
       </c>
       <c r="P22">
-        <v>5522</v>
+        <v>5469</v>
       </c>
       <c r="Q22">
-        <v>9294</v>
+        <v>9069</v>
       </c>
       <c r="R22">
-        <v>3027</v>
+        <v>2905</v>
       </c>
       <c r="S22">
-        <v>7530</v>
+        <v>8804</v>
       </c>
       <c r="T22">
-        <v>3287</v>
+        <v>3102</v>
       </c>
       <c r="U22">
-        <v>5953</v>
+        <v>5818</v>
       </c>
       <c r="V22">
-        <v>5007</v>
+        <v>4931</v>
       </c>
       <c r="W22">
-        <v>3764</v>
+        <v>3626</v>
       </c>
       <c r="X22">
-        <v>5523</v>
+        <v>5387</v>
       </c>
       <c r="Y22">
-        <v>12027</v>
+        <v>2496</v>
       </c>
       <c r="Z22">
-        <v>3164</v>
+        <v>3102</v>
       </c>
       <c r="AA22">
-        <v>5008</v>
+        <v>4822</v>
       </c>
       <c r="AB22">
-        <v>2500</v>
+        <v>2386</v>
       </c>
       <c r="AC22">
-        <v>4247</v>
+        <v>4082</v>
       </c>
       <c r="AD22">
-        <v>7358</v>
+        <v>7176</v>
       </c>
       <c r="AE22">
-        <v>4127</v>
+        <v>4002</v>
       </c>
       <c r="AF22">
-        <v>7411</v>
+        <v>7348</v>
       </c>
       <c r="AG22">
-        <v>6613</v>
+        <v>6448</v>
       </c>
       <c r="AH22">
-        <v>5127</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3008,7 +3002,7 @@
         <v>1532</v>
       </c>
       <c r="J23">
-        <v>851</v>
+        <v>809</v>
       </c>
       <c r="K23">
         <v>1346</v>
@@ -3020,10 +3014,10 @@
         <v>957</v>
       </c>
       <c r="N23">
-        <v>779</v>
+        <v>629</v>
       </c>
       <c r="O23">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="P23">
         <v>1008</v>
@@ -3032,16 +3026,16 @@
         <v>708</v>
       </c>
       <c r="R23">
-        <v>792</v>
+        <v>842</v>
       </c>
       <c r="S23">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="T23">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="U23">
-        <v>1002</v>
+        <v>887</v>
       </c>
       <c r="V23">
         <v>310</v>
@@ -3050,25 +3044,25 @@
         <v>293</v>
       </c>
       <c r="X23">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="Y23">
-        <v>2766</v>
+        <v>2750</v>
       </c>
       <c r="Z23">
         <v>1653</v>
       </c>
       <c r="AA23">
-        <v>780</v>
+        <v>730</v>
       </c>
       <c r="AB23">
-        <v>539</v>
+        <v>374</v>
       </c>
       <c r="AC23">
         <v>322</v>
       </c>
       <c r="AD23">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="AE23">
         <v>844</v>
@@ -3103,82 +3097,82 @@
         <v>92</v>
       </c>
       <c r="I24">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="J24">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K24">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L24">
         <v>249</v>
       </c>
       <c r="M24">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N24">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="O24">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="P24">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Q24">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="R24">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="S24">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="T24">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="U24">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="V24">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="W24">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="X24">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="Y24">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Z24">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AA24">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AB24">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AC24">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AD24">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="AE24">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF24">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AG24">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="AH24">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -3201,82 +3195,82 @@
         <v>93</v>
       </c>
       <c r="I25">
-        <v>5062</v>
+        <v>5007</v>
       </c>
       <c r="J25">
-        <v>4981</v>
+        <v>4850</v>
       </c>
       <c r="K25">
-        <v>3260</v>
+        <v>3224</v>
       </c>
       <c r="L25">
-        <v>2782</v>
+        <v>2682</v>
       </c>
       <c r="M25">
-        <v>2574</v>
+        <v>2469</v>
       </c>
       <c r="N25">
-        <v>2808</v>
+        <v>2798</v>
       </c>
       <c r="O25">
-        <v>2852</v>
+        <v>2761</v>
       </c>
       <c r="P25">
-        <v>3955</v>
+        <v>3950</v>
       </c>
       <c r="Q25">
-        <v>3885</v>
+        <v>3770</v>
       </c>
       <c r="R25">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="S25">
-        <v>3070</v>
+        <v>3040</v>
       </c>
       <c r="T25">
-        <v>881</v>
+        <v>656</v>
       </c>
       <c r="U25">
-        <v>5336</v>
+        <v>5281</v>
       </c>
       <c r="V25">
-        <v>2457</v>
+        <v>2392</v>
       </c>
       <c r="W25">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="X25">
-        <v>2113</v>
+        <v>1756</v>
       </c>
       <c r="Y25">
-        <v>1512</v>
+        <v>1492</v>
       </c>
       <c r="Z25">
-        <v>2906</v>
+        <v>2896</v>
       </c>
       <c r="AA25">
-        <v>3391</v>
+        <v>3346</v>
       </c>
       <c r="AB25">
-        <v>2438</v>
+        <v>2348</v>
       </c>
       <c r="AC25">
-        <v>2587</v>
+        <v>2562</v>
       </c>
       <c r="AD25">
-        <v>2499</v>
+        <v>2409</v>
       </c>
       <c r="AE25">
-        <v>2602</v>
+        <v>2531</v>
       </c>
       <c r="AF25">
-        <v>5004</v>
+        <v>4924</v>
       </c>
       <c r="AG25">
-        <v>3423</v>
+        <v>3322</v>
       </c>
       <c r="AH25">
-        <v>3348</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3299,52 +3293,52 @@
         <v>94</v>
       </c>
       <c r="I26">
-        <v>2132</v>
+        <v>2117</v>
       </c>
       <c r="J26">
-        <v>8944</v>
+        <v>8408</v>
       </c>
       <c r="K26">
-        <v>1094</v>
+        <v>1028</v>
       </c>
       <c r="L26">
-        <v>5155</v>
+        <v>5085</v>
       </c>
       <c r="M26">
-        <v>2138</v>
+        <v>2128</v>
       </c>
       <c r="N26">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="O26">
-        <v>1536</v>
+        <v>1511</v>
       </c>
       <c r="P26">
-        <v>1539</v>
+        <v>1499</v>
       </c>
       <c r="Q26">
-        <v>9080</v>
+        <v>9004</v>
       </c>
       <c r="R26">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="S26">
-        <v>3674</v>
+        <v>3643</v>
       </c>
       <c r="T26">
-        <v>4715</v>
+        <v>4624</v>
       </c>
       <c r="U26">
-        <v>3884</v>
+        <v>3779</v>
       </c>
       <c r="V26">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="W26">
-        <v>1659</v>
+        <v>1609</v>
       </c>
       <c r="X26">
-        <v>7769</v>
+        <v>7704</v>
       </c>
       <c r="Y26">
         <v>2029</v>
@@ -3353,28 +3347,28 @@
         <v>1796</v>
       </c>
       <c r="AA26">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="AB26">
         <v>2944</v>
       </c>
       <c r="AC26">
-        <v>2653</v>
+        <v>2638</v>
       </c>
       <c r="AD26">
-        <v>1802</v>
+        <v>1767</v>
       </c>
       <c r="AE26">
-        <v>1542</v>
+        <v>1506</v>
       </c>
       <c r="AF26">
-        <v>10196</v>
+        <v>10062</v>
       </c>
       <c r="AG26">
-        <v>4160</v>
+        <v>4155</v>
       </c>
       <c r="AH26">
-        <v>3628</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -3397,82 +3391,82 @@
         <v>95</v>
       </c>
       <c r="I27">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J27">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K27">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="L27">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M27">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N27">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O27">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="P27">
         <v>159</v>
       </c>
       <c r="Q27">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="R27">
         <v>111</v>
       </c>
       <c r="S27">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T27">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="U27">
+        <v>91</v>
+      </c>
+      <c r="V27">
         <v>94</v>
       </c>
-      <c r="V27">
-        <v>95</v>
-      </c>
       <c r="W27">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="X27">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Y27">
-        <v>476</v>
+        <v>1635</v>
       </c>
       <c r="Z27">
+        <v>131</v>
+      </c>
+      <c r="AA27">
         <v>132</v>
       </c>
-      <c r="AA27">
-        <v>134</v>
-      </c>
       <c r="AB27">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC27">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD27">
         <v>120</v>
       </c>
       <c r="AE27">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="AF27">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AG27">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AH27">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3516,7 +3510,7 @@
         <v>25</v>
       </c>
       <c r="Q28">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R28">
         <v>10</v>
@@ -3528,7 +3522,7 @@
         <v>29</v>
       </c>
       <c r="U28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V28">
         <v>49</v>
@@ -3537,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="X28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y28">
         <v>309</v>
@@ -3561,7 +3555,7 @@
         <v>40</v>
       </c>
       <c r="AF28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG28">
         <v>45</v>
@@ -3590,7 +3584,7 @@
         <v>69</v>
       </c>
       <c r="J29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29">
         <v>16</v>
@@ -3617,25 +3611,25 @@
         <v>33</v>
       </c>
       <c r="S29">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T29">
         <v>52</v>
       </c>
       <c r="U29">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V29">
         <v>43</v>
       </c>
       <c r="W29">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X29">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y29">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="Z29">
         <v>78</v>
@@ -3653,16 +3647,16 @@
         <v>66</v>
       </c>
       <c r="AE29">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF29">
         <v>33</v>
       </c>
       <c r="AG29">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AH29">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -3685,31 +3679,31 @@
         <v>98</v>
       </c>
       <c r="I30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J30">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N30">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="P30">
         <v>68</v>
       </c>
       <c r="Q30">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R30">
         <v>54</v>
@@ -3727,28 +3721,28 @@
         <v>78</v>
       </c>
       <c r="W30">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y30">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z30">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AA30">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB30">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AC30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD30">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE30">
         <v>27</v>
@@ -3757,7 +3751,7 @@
         <v>45</v>
       </c>
       <c r="AG30">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH30">
         <v>63</v>
@@ -3783,25 +3777,25 @@
         <v>99</v>
       </c>
       <c r="I31">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J31">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K31">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="L31">
         <v>61</v>
       </c>
       <c r="M31">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N31">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O31">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P31">
         <v>68</v>
@@ -3810,52 +3804,52 @@
         <v>120</v>
       </c>
       <c r="R31">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S31">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="T31">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="U31">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="V31">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W31">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="X31">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Y31">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="Z31">
         <v>99</v>
       </c>
       <c r="AA31">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AB31">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AC31">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AD31">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AE31">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF31">
         <v>57</v>
       </c>
       <c r="AG31">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH31">
         <v>95</v>
@@ -3881,67 +3875,67 @@
         <v>100</v>
       </c>
       <c r="I32">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J32">
         <v>57</v>
       </c>
       <c r="K32">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L32">
         <v>74</v>
       </c>
       <c r="M32">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N32">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O32">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P32">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q32">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="R32">
         <v>11</v>
       </c>
       <c r="S32">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T32">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="U32">
         <v>103</v>
       </c>
       <c r="V32">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W32">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y32">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="Z32">
         <v>121</v>
       </c>
       <c r="AA32">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="AB32">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AC32">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AD32">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="AE32">
         <v>84</v>
@@ -3950,7 +3944,7 @@
         <v>60</v>
       </c>
       <c r="AG32">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AH32">
         <v>72</v>
@@ -3985,25 +3979,25 @@
         <v>49</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N33">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O33">
         <v>25</v>
       </c>
       <c r="P33">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S33">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T33">
         <v>65</v>
@@ -4018,7 +4012,7 @@
         <v>28</v>
       </c>
       <c r="X33">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Y33">
         <v>67</v>
@@ -4027,25 +4021,25 @@
         <v>66</v>
       </c>
       <c r="AA33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB33">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC33">
         <v>20</v>
       </c>
       <c r="AD33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AE33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF33">
         <v>61</v>
       </c>
       <c r="AG33">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH33">
         <v>50</v>
@@ -4071,79 +4065,79 @@
         <v>102</v>
       </c>
       <c r="I34">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="J34">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="K34">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="L34">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="M34">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="N34">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="O34">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="P34">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="R34">
+        <v>130</v>
+      </c>
+      <c r="S34">
+        <v>179</v>
+      </c>
+      <c r="T34">
+        <v>304</v>
+      </c>
+      <c r="U34">
+        <v>230</v>
+      </c>
+      <c r="V34">
         <v>167</v>
       </c>
-      <c r="S34">
-        <v>238</v>
-      </c>
-      <c r="T34">
-        <v>346</v>
-      </c>
-      <c r="U34">
-        <v>264</v>
-      </c>
-      <c r="V34">
-        <v>185</v>
-      </c>
       <c r="W34">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="X34">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="Y34">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="Z34">
+        <v>117</v>
       </c>
       <c r="AA34">
-        <v>141</v>
-      </c>
-      <c r="AB34">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="AC34">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="AE34">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="AF34">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AG34">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="AH34">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:34">
@@ -4163,82 +4157,82 @@
         <v>103</v>
       </c>
       <c r="I35">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J35">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K35">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L35">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M35">
+        <v>112</v>
+      </c>
+      <c r="N35">
+        <v>567</v>
+      </c>
+      <c r="O35">
         <v>122</v>
       </c>
-      <c r="N35">
-        <v>586</v>
-      </c>
-      <c r="O35">
-        <v>128</v>
-      </c>
       <c r="P35">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q35">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R35">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="S35">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="T35">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="U35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="V35">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="W35">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="X35">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Y35">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="Z35">
         <v>394</v>
       </c>
       <c r="AA35">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AB35">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AC35">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AD35">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AE35">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AF35">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG35">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH35">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:34">
@@ -4258,7 +4252,7 @@
         <v>104</v>
       </c>
       <c r="I36">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J36">
         <v>137</v>
@@ -4273,16 +4267,16 @@
         <v>161</v>
       </c>
       <c r="N36">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="O36">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="P36">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q36">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R36">
         <v>88</v>
@@ -4291,7 +4285,7 @@
         <v>117</v>
       </c>
       <c r="T36">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="U36">
         <v>75</v>
@@ -4300,40 +4294,40 @@
         <v>105</v>
       </c>
       <c r="W36">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X36">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y36">
         <v>914</v>
       </c>
       <c r="Z36">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA36">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AB36">
         <v>183</v>
       </c>
       <c r="AC36">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AD36">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE36">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AF36">
         <v>208</v>
       </c>
       <c r="AG36">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH36">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:34">
@@ -4356,82 +4350,82 @@
         <v>105</v>
       </c>
       <c r="I37">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J37">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="K37">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L37">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M37">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="N37">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="O37">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P37">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q37">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="R37">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="S37">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="T37">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="U37">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V37">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="W37">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="X37">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Y37">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="Z37">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AA37">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="AB37">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC37">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AD37">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="AE37">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="AF37">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="AG37">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH37">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:34">
@@ -4454,82 +4448,82 @@
         <v>106</v>
       </c>
       <c r="I38">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="J38">
-        <v>828</v>
+        <v>761</v>
       </c>
       <c r="K38">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="L38">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="M38">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="N38">
-        <v>1240</v>
+        <v>1203</v>
       </c>
       <c r="O38">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="P38">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="Q38">
-        <v>1614</v>
+        <v>1555</v>
       </c>
       <c r="R38">
-        <v>951</v>
+        <v>924</v>
       </c>
       <c r="S38">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="T38">
-        <v>848</v>
+        <v>805</v>
       </c>
       <c r="U38">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="V38">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="W38">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="X38">
-        <v>601</v>
+        <v>554</v>
       </c>
       <c r="Y38">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="Z38">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="AB38">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="AC38">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="AD38">
-        <v>769</v>
+        <v>736</v>
       </c>
       <c r="AE38">
-        <v>590</v>
+        <v>556</v>
       </c>
       <c r="AF38">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="AG38">
-        <v>1397</v>
+        <v>1368</v>
       </c>
       <c r="AH38">
-        <v>1248</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="39" spans="1:34">
@@ -4552,61 +4546,61 @@
         <v>107</v>
       </c>
       <c r="I39">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="J39">
-        <v>672</v>
+        <v>621</v>
       </c>
       <c r="K39">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="L39">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M39">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="N39">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="O39">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="P39">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="Q39">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="R39">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="S39">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="T39">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="U39">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="V39">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="W39">
         <v>480</v>
       </c>
       <c r="X39">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="Y39">
-        <v>593</v>
+        <v>437</v>
       </c>
       <c r="Z39">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="AA39">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="AB39">
         <v>729</v>
@@ -4615,19 +4609,19 @@
         <v>606</v>
       </c>
       <c r="AD39">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="AE39">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="AF39">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AG39">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="AH39">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -4650,82 +4644,82 @@
         <v>108</v>
       </c>
       <c r="I40">
-        <v>225</v>
+        <v>508</v>
       </c>
       <c r="J40">
-        <v>1053</v>
+        <v>1023</v>
       </c>
       <c r="K40">
-        <v>1096</v>
+        <v>1314</v>
       </c>
       <c r="L40">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M40">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="N40">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="O40">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="P40">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="Q40">
-        <v>936</v>
+        <v>906</v>
       </c>
       <c r="R40">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="S40">
-        <v>566</v>
+        <v>1035</v>
       </c>
       <c r="T40">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="U40">
-        <v>414</v>
+        <v>514</v>
       </c>
       <c r="V40">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="W40">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="X40">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="Y40">
-        <v>9521</v>
+        <v>9585</v>
       </c>
       <c r="Z40">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="AA40">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="AB40">
-        <v>821</v>
+        <v>794</v>
       </c>
       <c r="AC40">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="AD40">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="AE40">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="AF40">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AG40">
-        <v>351</v>
+        <v>448</v>
       </c>
       <c r="AH40">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:34">
@@ -4748,82 +4742,82 @@
         <v>109</v>
       </c>
       <c r="I41">
-        <v>1561</v>
+        <v>1510</v>
       </c>
       <c r="J41">
-        <v>1857</v>
+        <v>1797</v>
       </c>
       <c r="K41">
-        <v>1366</v>
+        <v>1666</v>
       </c>
       <c r="L41">
-        <v>1142</v>
+        <v>1115</v>
       </c>
       <c r="M41">
-        <v>1036</v>
+        <v>995</v>
       </c>
       <c r="N41">
-        <v>1263</v>
+        <v>1235</v>
       </c>
       <c r="O41">
-        <v>939</v>
+        <v>887</v>
       </c>
       <c r="P41">
-        <v>1531</v>
+        <v>1508</v>
       </c>
       <c r="Q41">
-        <v>1137</v>
+        <v>1093</v>
       </c>
       <c r="R41">
-        <v>847</v>
+        <v>1146</v>
       </c>
       <c r="S41">
-        <v>1756</v>
+        <v>1732</v>
       </c>
       <c r="T41">
-        <v>1175</v>
+        <v>1135</v>
       </c>
       <c r="U41">
-        <v>974</v>
+        <v>930</v>
       </c>
       <c r="V41">
-        <v>971</v>
+        <v>946</v>
       </c>
       <c r="W41">
-        <v>1585</v>
+        <v>1550</v>
       </c>
       <c r="X41">
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="Y41">
-        <v>4828</v>
+        <v>2139</v>
       </c>
       <c r="Z41">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="AA41">
-        <v>1225</v>
+        <v>1173</v>
       </c>
       <c r="AB41">
-        <v>908</v>
+        <v>862</v>
       </c>
       <c r="AC41">
-        <v>2138</v>
+        <v>2096</v>
       </c>
       <c r="AD41">
-        <v>1654</v>
+        <v>1598</v>
       </c>
       <c r="AE41">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="AF41">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="AG41">
-        <v>1491</v>
+        <v>1443</v>
       </c>
       <c r="AH41">
-        <v>1543</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="42" spans="1:34">
@@ -4846,46 +4840,46 @@
         <v>110</v>
       </c>
       <c r="I42">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="J42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42">
         <v>101</v>
       </c>
       <c r="L42">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M42">
         <v>64</v>
       </c>
       <c r="N42">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O42">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="P42">
         <v>50</v>
       </c>
       <c r="Q42">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R42">
         <v>85</v>
       </c>
       <c r="S42">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T42">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U42">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V42">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W42">
         <v>40</v>
@@ -4894,22 +4888,22 @@
         <v>55</v>
       </c>
       <c r="Y42">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="Z42">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA42">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AB42">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC42">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AD42">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AE42">
         <v>80</v>
@@ -4918,10 +4912,10 @@
         <v>55</v>
       </c>
       <c r="AG42">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AH42">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:34">
@@ -4944,70 +4938,70 @@
         <v>111</v>
       </c>
       <c r="I43">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J43">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K43">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="L43">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="M43">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N43">
-        <v>988</v>
+        <v>968</v>
       </c>
       <c r="O43">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P43">
         <v>348</v>
       </c>
       <c r="Q43">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="T43">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="U43">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="V43">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="W43">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="X43">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="Y43">
-        <v>375</v>
+        <v>173</v>
       </c>
       <c r="Z43">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AB43">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AC43">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="AD43">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="AE43">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AF43">
         <v>381</v>
       </c>
       <c r="AG43">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="AH43">
         <v>181</v>
@@ -5020,6 +5014,9 @@
       <c r="B44" t="s">
         <v>51</v>
       </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
       <c r="F44">
         <v>18</v>
       </c>
@@ -5030,82 +5027,82 @@
         <v>112</v>
       </c>
       <c r="I44">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="J44">
-        <v>874</v>
+        <v>798</v>
       </c>
       <c r="K44">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="L44">
-        <v>817</v>
+        <v>790</v>
       </c>
       <c r="M44">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>588</v>
+        <v>450</v>
       </c>
       <c r="O44">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="P44">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="Q44">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="R44">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="S44">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="T44">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="U44">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="V44">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="W44">
-        <v>659</v>
+        <v>578</v>
       </c>
       <c r="X44">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="Y44">
-        <v>1180</v>
+        <v>478</v>
       </c>
       <c r="Z44">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="AA44">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="AB44">
-        <v>657</v>
+        <v>581</v>
       </c>
       <c r="AC44">
-        <v>498</v>
+        <v>450</v>
       </c>
       <c r="AD44">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="AE44">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="AF44">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="AG44">
-        <v>618</v>
+        <v>562</v>
       </c>
       <c r="AH44">
-        <v>639</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:34">
@@ -5128,82 +5125,82 @@
         <v>113</v>
       </c>
       <c r="I45">
-        <v>1982</v>
+        <v>1933</v>
       </c>
       <c r="J45">
-        <v>2391</v>
+        <v>2304</v>
       </c>
       <c r="K45">
-        <v>2130</v>
+        <v>2044</v>
       </c>
       <c r="L45">
-        <v>1248</v>
+        <v>1223</v>
       </c>
       <c r="M45">
-        <v>1528</v>
+        <v>1438</v>
       </c>
       <c r="N45">
-        <v>1982</v>
+        <v>1884</v>
       </c>
       <c r="O45">
-        <v>1952</v>
+        <v>1853</v>
       </c>
       <c r="P45">
-        <v>2794</v>
+        <v>2722</v>
       </c>
       <c r="Q45">
-        <v>2744</v>
+        <v>2663</v>
       </c>
       <c r="R45">
-        <v>1756</v>
+        <v>1675</v>
       </c>
       <c r="S45">
-        <v>2931</v>
+        <v>2804</v>
       </c>
       <c r="T45">
-        <v>2082</v>
+        <v>2028</v>
       </c>
       <c r="U45">
-        <v>1675</v>
+        <v>1586</v>
       </c>
       <c r="V45">
-        <v>1163</v>
+        <v>1007</v>
       </c>
       <c r="W45">
-        <v>1314</v>
+        <v>1216</v>
       </c>
       <c r="X45">
-        <v>2517</v>
+        <v>2361</v>
       </c>
       <c r="Y45">
-        <v>1473</v>
+        <v>1376</v>
       </c>
       <c r="Z45">
-        <v>2614</v>
+        <v>2560</v>
       </c>
       <c r="AA45">
-        <v>1610</v>
+        <v>1515</v>
       </c>
       <c r="AB45">
-        <v>2868</v>
+        <v>2609</v>
       </c>
       <c r="AC45">
-        <v>1485</v>
+        <v>1398</v>
       </c>
       <c r="AD45">
-        <v>1603</v>
+        <v>1483</v>
       </c>
       <c r="AE45">
-        <v>2278</v>
+        <v>2181</v>
       </c>
       <c r="AF45">
-        <v>1224</v>
+        <v>1201</v>
       </c>
       <c r="AG45">
-        <v>1726</v>
+        <v>1639</v>
       </c>
       <c r="AH45">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="46" spans="1:34">
@@ -5226,25 +5223,25 @@
         <v>114</v>
       </c>
       <c r="I46">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="J46">
+        <v>118</v>
+      </c>
+      <c r="K46">
         <v>119</v>
       </c>
-      <c r="K46">
-        <v>124</v>
-      </c>
       <c r="L46">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N46">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O46">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="P46">
         <v>53</v>
@@ -5256,52 +5253,52 @@
         <v>47</v>
       </c>
       <c r="S46">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="T46">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="U46">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V46">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W46">
         <v>64</v>
       </c>
       <c r="X46">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Y46">
-        <v>2368</v>
+        <v>2295</v>
       </c>
       <c r="Z46">
         <v>263</v>
       </c>
       <c r="AA46">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB46">
         <v>211</v>
       </c>
       <c r="AC46">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AD46">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AE46">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF46">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG46">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AH46">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:34">
@@ -5336,25 +5333,25 @@
         <v>46</v>
       </c>
       <c r="M47">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N47">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O47">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P47">
         <v>167</v>
       </c>
       <c r="Q47">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R47">
         <v>8</v>
       </c>
       <c r="S47">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="T47">
         <v>120</v>
@@ -5372,19 +5369,19 @@
         <v>240</v>
       </c>
       <c r="Y47">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="Z47">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AA47">
         <v>150</v>
       </c>
       <c r="AB47">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AC47">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD47">
         <v>99</v>
@@ -5396,7 +5393,7 @@
         <v>141</v>
       </c>
       <c r="AG47">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH47">
         <v>183</v>
@@ -5422,82 +5419,82 @@
         <v>116</v>
       </c>
       <c r="I48">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J48">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="K48">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="L48">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="M48">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="N48">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="O48">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="P48">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="Q48">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="R48">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="S48">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="T48">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="U48">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="V48">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="W48">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="X48">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y48">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="Z48">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AA48">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AB48">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="AC48">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AD48">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="AE48">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="AF48">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="AG48">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="AH48">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -5520,82 +5517,82 @@
         <v>117</v>
       </c>
       <c r="I49">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K49">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L49">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M49">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N49">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="O49">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="P49">
         <v>59</v>
       </c>
       <c r="Q49">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="R49">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="S49">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="T49">
+        <v>156</v>
+      </c>
+      <c r="U49">
+        <v>76</v>
+      </c>
+      <c r="V49">
+        <v>117</v>
+      </c>
+      <c r="W49">
+        <v>138</v>
+      </c>
+      <c r="X49">
+        <v>47</v>
+      </c>
+      <c r="Y49">
+        <v>2390</v>
+      </c>
+      <c r="Z49">
+        <v>102</v>
+      </c>
+      <c r="AA49">
+        <v>94</v>
+      </c>
+      <c r="AB49">
         <v>163</v>
       </c>
-      <c r="U49">
-        <v>83</v>
-      </c>
-      <c r="V49">
-        <v>120</v>
-      </c>
-      <c r="W49">
-        <v>140</v>
-      </c>
-      <c r="X49">
-        <v>53</v>
-      </c>
-      <c r="Y49">
-        <v>172</v>
-      </c>
-      <c r="Z49">
-        <v>36</v>
-      </c>
-      <c r="AA49">
-        <v>100</v>
-      </c>
-      <c r="AB49">
-        <v>167</v>
-      </c>
       <c r="AC49">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="AD49">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AE49">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AF49">
         <v>58</v>
       </c>
       <c r="AG49">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH49">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:34">
@@ -5618,82 +5615,82 @@
         <v>118</v>
       </c>
       <c r="I50">
-        <v>1224</v>
+        <v>1200</v>
       </c>
       <c r="J50">
-        <v>1349</v>
+        <v>1198</v>
       </c>
       <c r="K50">
-        <v>1586</v>
+        <v>827</v>
       </c>
       <c r="L50">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="M50">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="N50">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="O50">
-        <v>798</v>
+        <v>774</v>
       </c>
       <c r="P50">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="Q50">
-        <v>1748</v>
+        <v>1223</v>
       </c>
       <c r="R50">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="S50">
-        <v>1153</v>
+        <v>485</v>
       </c>
       <c r="T50">
-        <v>987</v>
+        <v>1237</v>
       </c>
       <c r="U50">
-        <v>856</v>
+        <v>1117</v>
       </c>
       <c r="V50">
-        <v>883</v>
+        <v>787</v>
       </c>
       <c r="W50">
-        <v>465</v>
+        <v>404</v>
       </c>
       <c r="X50">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Y50">
-        <v>934</v>
+        <v>777</v>
       </c>
       <c r="Z50">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AA50">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="AB50">
-        <v>580</v>
+        <v>508</v>
       </c>
       <c r="AC50">
-        <v>1001</v>
+        <v>904</v>
       </c>
       <c r="AD50">
-        <v>635</v>
+        <v>557</v>
       </c>
       <c r="AE50">
-        <v>474</v>
+        <v>337</v>
       </c>
       <c r="AF50">
-        <v>1286</v>
+        <v>1157</v>
       </c>
       <c r="AG50">
-        <v>832</v>
+        <v>735</v>
       </c>
       <c r="AH50">
-        <v>309</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:34">
@@ -5719,7 +5716,7 @@
         <v>25</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O51">
         <v>23</v>
@@ -5746,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="X51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y51">
         <v>104</v>
@@ -5758,7 +5755,7 @@
         <v>30</v>
       </c>
       <c r="AB51">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AC51">
         <v>11</v>
@@ -5808,10 +5805,10 @@
         <v>94</v>
       </c>
       <c r="M52">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N52">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O52">
         <v>35</v>
@@ -5820,7 +5817,7 @@
         <v>74</v>
       </c>
       <c r="Q52">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R52">
         <v>31</v>
@@ -5835,16 +5832,16 @@
         <v>73</v>
       </c>
       <c r="V52">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X52">
         <v>42</v>
       </c>
       <c r="Y52">
-        <v>4608</v>
+        <v>4552</v>
       </c>
       <c r="Z52">
         <v>175</v>
@@ -5894,82 +5891,82 @@
         <v>121</v>
       </c>
       <c r="I53">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="J53">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="K53">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="L53">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="M53">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="N53">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O53">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="P53">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q53">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="R53">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="S53">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="T53">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="U53">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="V53">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W53">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="X53">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="Y53">
-        <v>1113</v>
+        <v>953</v>
       </c>
       <c r="Z53">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AA53">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="AB53">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="AC53">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AD53">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="AE53">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AF53">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AG53">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="AH53">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:34">
@@ -5989,31 +5986,34 @@
         <v>122</v>
       </c>
       <c r="K54">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N54">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="O54">
+        <v>7</v>
       </c>
       <c r="P54">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q54">
         <v>1</v>
       </c>
       <c r="S54">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V54">
         <v>34</v>
       </c>
       <c r="Y54">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG54">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:34">
@@ -6045,7 +6045,7 @@
         <v>28</v>
       </c>
       <c r="L55">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M55">
         <v>33</v>
@@ -6054,13 +6054,13 @@
         <v>11</v>
       </c>
       <c r="O55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P55">
         <v>8</v>
       </c>
       <c r="Q55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R55">
         <v>45</v>
@@ -6072,19 +6072,19 @@
         <v>65</v>
       </c>
       <c r="U55">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V55">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W55">
         <v>78</v>
       </c>
       <c r="X55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y55">
-        <v>1926</v>
+        <v>1906</v>
       </c>
       <c r="Z55">
         <v>95</v>
@@ -6096,7 +6096,7 @@
         <v>102</v>
       </c>
       <c r="AC55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD55">
         <v>50</v>
@@ -6105,7 +6105,7 @@
         <v>13</v>
       </c>
       <c r="AF55">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG55">
         <v>14</v>
@@ -6134,82 +6134,82 @@
         <v>124</v>
       </c>
       <c r="I56">
-        <v>2747</v>
+        <v>2708</v>
       </c>
       <c r="J56">
-        <v>2717</v>
+        <v>2430</v>
       </c>
       <c r="K56">
-        <v>2268</v>
+        <v>2192</v>
       </c>
       <c r="L56">
-        <v>1615</v>
+        <v>1470</v>
       </c>
       <c r="M56">
-        <v>2829</v>
+        <v>2749</v>
       </c>
       <c r="N56">
-        <v>4351</v>
+        <v>4304</v>
       </c>
       <c r="O56">
-        <v>857</v>
+        <v>820</v>
       </c>
       <c r="P56">
-        <v>1819</v>
+        <v>1779</v>
       </c>
       <c r="Q56">
-        <v>2919</v>
+        <v>2871</v>
       </c>
       <c r="R56">
         <v>1331</v>
       </c>
       <c r="S56">
-        <v>2131</v>
+        <v>2083</v>
       </c>
       <c r="T56">
-        <v>2175</v>
+        <v>2150</v>
       </c>
       <c r="U56">
-        <v>2170</v>
+        <v>2077</v>
       </c>
       <c r="V56">
-        <v>2614</v>
+        <v>2595</v>
       </c>
       <c r="W56">
-        <v>2622</v>
+        <v>2447</v>
       </c>
       <c r="X56">
-        <v>1545</v>
+        <v>1527</v>
       </c>
       <c r="Y56">
-        <v>973</v>
+        <v>931</v>
       </c>
       <c r="Z56">
-        <v>470</v>
+        <v>343</v>
       </c>
       <c r="AA56">
-        <v>3884</v>
+        <v>3765</v>
       </c>
       <c r="AB56">
-        <v>2543</v>
+        <v>2346</v>
       </c>
       <c r="AC56">
-        <v>2154</v>
+        <v>2073</v>
       </c>
       <c r="AD56">
-        <v>1212</v>
+        <v>1035</v>
       </c>
       <c r="AE56">
-        <v>831</v>
+        <v>712</v>
       </c>
       <c r="AF56">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="AG56">
-        <v>3660</v>
+        <v>3630</v>
       </c>
       <c r="AH56">
-        <v>2933</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="57" spans="1:34">
@@ -6229,82 +6229,82 @@
         <v>125</v>
       </c>
       <c r="I57">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J57">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="K57">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L57">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="M57">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="N57">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="O57">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P57">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q57">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="R57">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="S57">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="T57">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="U57">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="V57">
         <v>316</v>
       </c>
       <c r="W57">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X57">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Y57">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="Z57">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="AA57">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="AB57">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AC57">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AD57">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AE57">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AF57">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG57">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="AH57">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:34">
@@ -6324,82 +6324,82 @@
         <v>126</v>
       </c>
       <c r="I58">
-        <v>1517</v>
+        <v>1441</v>
       </c>
       <c r="J58">
-        <v>2071</v>
+        <v>2046</v>
       </c>
       <c r="K58">
-        <v>1654</v>
+        <v>1599</v>
       </c>
       <c r="L58">
-        <v>2185</v>
+        <v>2075</v>
       </c>
       <c r="M58">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="N58">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="O58">
-        <v>2655</v>
+        <v>2584</v>
       </c>
       <c r="P58">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="Q58">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R58">
-        <v>1166</v>
+        <v>1106</v>
       </c>
       <c r="S58">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="T58">
-        <v>720</v>
+        <v>635</v>
       </c>
       <c r="U58">
-        <v>2138</v>
+        <v>2120</v>
       </c>
       <c r="V58">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="W58">
-        <v>1199</v>
+        <v>1131</v>
       </c>
       <c r="X58">
-        <v>1443</v>
+        <v>1395</v>
       </c>
       <c r="Y58">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Z58">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="AA58">
-        <v>985</v>
+        <v>859</v>
       </c>
       <c r="AB58">
-        <v>1691</v>
+        <v>1677</v>
       </c>
       <c r="AC58">
-        <v>1276</v>
+        <v>1229</v>
       </c>
       <c r="AD58">
-        <v>2067</v>
+        <v>2014</v>
       </c>
       <c r="AE58">
-        <v>1357</v>
+        <v>1286</v>
       </c>
       <c r="AF58">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="AG58">
-        <v>1831</v>
+        <v>1686</v>
       </c>
       <c r="AH58">
-        <v>1488</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="59" spans="1:34">
@@ -6419,49 +6419,49 @@
         <v>127</v>
       </c>
       <c r="I59">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J59">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="K59">
         <v>220</v>
       </c>
       <c r="L59">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="M59">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N59">
         <v>343</v>
       </c>
       <c r="O59">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="P59">
         <v>416</v>
       </c>
       <c r="Q59">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="R59">
         <v>141</v>
       </c>
       <c r="S59">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="T59">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="U59">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="V59">
         <v>146</v>
       </c>
       <c r="W59">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="X59">
         <v>369</v>
@@ -6470,28 +6470,28 @@
         <v>256</v>
       </c>
       <c r="Z59">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AA59">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="AB59">
         <v>299</v>
       </c>
       <c r="AC59">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AD59">
         <v>102</v>
       </c>
       <c r="AE59">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AF59">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AG59">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AH59">
         <v>399</v>
@@ -6517,7 +6517,7 @@
         <v>128</v>
       </c>
       <c r="I60">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J60">
         <v>219</v>
@@ -6526,73 +6526,73 @@
         <v>96</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M60">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N60">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O60">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P60">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q60">
         <v>113</v>
       </c>
       <c r="R60">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S60">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T60">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="U60">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="V60">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="W60">
         <v>34</v>
       </c>
       <c r="X60">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y60">
         <v>233</v>
       </c>
       <c r="Z60">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AA60">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AB60">
         <v>193</v>
       </c>
       <c r="AC60">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AD60">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AE60">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF60">
         <v>69</v>
       </c>
       <c r="AG60">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH60">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:34">
@@ -6638,82 +6638,82 @@
         <v>130</v>
       </c>
       <c r="I62">
-        <v>1673</v>
+        <v>1609</v>
       </c>
       <c r="J62">
-        <v>855</v>
+        <v>809</v>
       </c>
       <c r="K62">
-        <v>1082</v>
+        <v>1036</v>
       </c>
       <c r="L62">
-        <v>973</v>
+        <v>928</v>
       </c>
       <c r="M62">
-        <v>1533</v>
+        <v>1477</v>
       </c>
       <c r="N62">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="O62">
-        <v>1518</v>
+        <v>1041</v>
       </c>
       <c r="P62">
-        <v>2393</v>
+        <v>2385</v>
       </c>
       <c r="Q62">
-        <v>792</v>
+        <v>758</v>
       </c>
       <c r="R62">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="S62">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="T62">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="U62">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="V62">
-        <v>1145</v>
+        <v>1109</v>
       </c>
       <c r="W62">
-        <v>1232</v>
+        <v>1173</v>
       </c>
       <c r="X62">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="Y62">
-        <v>799</v>
+        <v>679</v>
       </c>
       <c r="Z62">
-        <v>1382</v>
+        <v>1366</v>
       </c>
       <c r="AA62">
-        <v>1061</v>
+        <v>926</v>
       </c>
       <c r="AB62">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="AC62">
-        <v>1267</v>
+        <v>1210</v>
       </c>
       <c r="AD62">
-        <v>699</v>
+        <v>599</v>
       </c>
       <c r="AE62">
-        <v>1519</v>
+        <v>1503</v>
       </c>
       <c r="AF62">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="AG62">
-        <v>1593</v>
+        <v>1499</v>
       </c>
       <c r="AH62">
-        <v>1189</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="63" spans="1:34">
@@ -6733,25 +6733,25 @@
         <v>131</v>
       </c>
       <c r="I63">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J63">
         <v>128</v>
       </c>
       <c r="K63">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="L63">
         <v>28</v>
       </c>
       <c r="M63">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N63">
         <v>93</v>
       </c>
       <c r="O63">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P63">
         <v>174</v>
@@ -6760,7 +6760,7 @@
         <v>87</v>
       </c>
       <c r="R63">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S63">
         <v>72</v>
@@ -6778,28 +6778,28 @@
         <v>127</v>
       </c>
       <c r="X63">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y63">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="Z63">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AA63">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AB63">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC63">
         <v>263</v>
       </c>
       <c r="AD63">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="AE63">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AF63">
         <v>16</v>
@@ -6831,82 +6831,82 @@
         <v>132</v>
       </c>
       <c r="I64">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J64">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="K64">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="L64">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="M64">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="N64">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="O64">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="P64">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="Q64">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="R64">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="S64">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="T64">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="U64">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="V64">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="W64">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="X64">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="Y64">
-        <v>4936</v>
+        <v>4519</v>
       </c>
       <c r="Z64">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="AA64">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="AB64">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="AC64">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="AD64">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="AE64">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="AF64">
         <v>400</v>
       </c>
       <c r="AG64">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AH64">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="65" spans="1:34">
@@ -6929,7 +6929,7 @@
         <v>363</v>
       </c>
       <c r="J65">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K65">
         <v>129</v>
@@ -6938,19 +6938,19 @@
         <v>12</v>
       </c>
       <c r="M65">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N65">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O65">
         <v>40</v>
       </c>
       <c r="P65">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q65">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R65">
         <v>126</v>
@@ -6977,19 +6977,19 @@
         <v>81</v>
       </c>
       <c r="Z65">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA65">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB65">
         <v>447</v>
       </c>
       <c r="AC65">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AE65">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AF65">
         <v>31</v>
@@ -7021,37 +7021,37 @@
         <v>215</v>
       </c>
       <c r="J66">
+        <v>95</v>
+      </c>
+      <c r="K66">
+        <v>141</v>
+      </c>
+      <c r="L66">
+        <v>210</v>
+      </c>
+      <c r="M66">
         <v>102</v>
       </c>
-      <c r="K66">
-        <v>142</v>
-      </c>
-      <c r="L66">
-        <v>211</v>
-      </c>
-      <c r="M66">
-        <v>105</v>
-      </c>
       <c r="N66">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O66">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P66">
         <v>122</v>
       </c>
       <c r="Q66">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R66">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="S66">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T66">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U66">
         <v>186</v>
@@ -7060,31 +7060,31 @@
         <v>132</v>
       </c>
       <c r="X66">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y66">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="Z66">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AA66">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB66">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AC66">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AD66">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AE66">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF66">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG66">
         <v>69</v>
@@ -7113,79 +7113,79 @@
         <v>382</v>
       </c>
       <c r="J67">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="K67">
-        <v>1070</v>
+        <v>1054</v>
       </c>
       <c r="L67">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M67">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="N67">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="O67">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="P67">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="Q67">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="R67">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="S67">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="T67">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="U67">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V67">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="W67">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="X67">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="Y67">
-        <v>3986</v>
+        <v>3386</v>
       </c>
       <c r="Z67">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="AA67">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AB67">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AC67">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="AD67">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="AE67">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AF67">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AG67">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AH67">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:34">
@@ -7205,64 +7205,64 @@
         <v>136</v>
       </c>
       <c r="I68">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J68">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K68">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="L68">
         <v>338</v>
       </c>
       <c r="M68">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N68">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O68">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P68">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q68">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R68">
         <v>335</v>
       </c>
       <c r="S68">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T68">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U68">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V68">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="W68">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X68">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y68">
-        <v>527</v>
+        <v>413</v>
       </c>
       <c r="Z68">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="AA68">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB68">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AC68">
         <v>470</v>
@@ -7271,16 +7271,16 @@
         <v>314</v>
       </c>
       <c r="AE68">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AF68">
         <v>138</v>
       </c>
       <c r="AG68">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="AH68">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:34">
@@ -7300,82 +7300,82 @@
         <v>137</v>
       </c>
       <c r="I69">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="J69">
-        <v>633</v>
+        <v>601</v>
       </c>
       <c r="K69">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="L69">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="M69">
-        <v>908</v>
+        <v>874</v>
       </c>
       <c r="N69">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="O69">
-        <v>742</v>
+        <v>653</v>
       </c>
       <c r="P69">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Q69">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="R69">
+        <v>404</v>
+      </c>
+      <c r="S69">
         <v>424</v>
       </c>
-      <c r="S69">
-        <v>443</v>
-      </c>
       <c r="T69">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="U69">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="V69">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="W69">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="X69">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="Y69">
-        <v>951</v>
+        <v>857</v>
       </c>
       <c r="Z69">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA69">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AB69">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="AC69">
-        <v>693</v>
+        <v>644</v>
       </c>
       <c r="AD69">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="AE69">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="AF69">
         <v>196</v>
       </c>
       <c r="AG69">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="AH69">
-        <v>646</v>
+        <v>635</v>
       </c>
     </row>
     <row r="70" spans="1:34">
@@ -7401,25 +7401,28 @@
         <v>177</v>
       </c>
       <c r="J70">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K70">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L70">
+        <v>13</v>
+      </c>
+      <c r="M70">
+        <v>189</v>
+      </c>
+      <c r="N70">
+        <v>60</v>
+      </c>
+      <c r="O70">
         <v>35</v>
-      </c>
-      <c r="M70">
-        <v>190</v>
-      </c>
-      <c r="N70">
-        <v>67</v>
       </c>
       <c r="P70">
         <v>58</v>
       </c>
       <c r="Q70">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R70">
         <v>628</v>
@@ -7428,7 +7431,7 @@
         <v>212</v>
       </c>
       <c r="T70">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U70">
         <v>7</v>
@@ -7437,10 +7440,10 @@
         <v>140</v>
       </c>
       <c r="W70">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="X70">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Y70">
         <v>17</v>
@@ -7449,25 +7452,25 @@
         <v>215</v>
       </c>
       <c r="AA70">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AB70">
         <v>55</v>
       </c>
       <c r="AD70">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AE70">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AF70">
         <v>148</v>
       </c>
       <c r="AG70">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AH70">
-        <v>563</v>
+        <v>545</v>
       </c>
     </row>
     <row r="71" spans="1:34">
@@ -7490,82 +7493,82 @@
         <v>139</v>
       </c>
       <c r="I71">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="J71">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="K71">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="L71">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M71">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="N71">
+        <v>902</v>
+      </c>
+      <c r="O71">
+        <v>1018</v>
+      </c>
+      <c r="P71">
+        <v>592</v>
+      </c>
+      <c r="Q71">
+        <v>664</v>
+      </c>
+      <c r="R71">
+        <v>825</v>
+      </c>
+      <c r="S71">
+        <v>1041</v>
+      </c>
+      <c r="T71">
+        <v>954</v>
+      </c>
+      <c r="U71">
+        <v>578</v>
+      </c>
+      <c r="V71">
+        <v>565</v>
+      </c>
+      <c r="W71">
+        <v>418</v>
+      </c>
+      <c r="X71">
+        <v>676</v>
+      </c>
+      <c r="Y71">
+        <v>3210</v>
+      </c>
+      <c r="Z71">
         <v>915</v>
       </c>
-      <c r="O71">
-        <v>1026</v>
-      </c>
-      <c r="P71">
-        <v>594</v>
-      </c>
-      <c r="Q71">
-        <v>675</v>
-      </c>
-      <c r="R71">
-        <v>845</v>
-      </c>
-      <c r="S71">
-        <v>1056</v>
-      </c>
-      <c r="T71">
-        <v>960</v>
-      </c>
-      <c r="U71">
-        <v>580</v>
-      </c>
-      <c r="V71">
-        <v>572</v>
-      </c>
-      <c r="W71">
-        <v>434</v>
-      </c>
-      <c r="X71">
-        <v>692</v>
-      </c>
-      <c r="Y71">
-        <v>3528</v>
-      </c>
-      <c r="Z71">
-        <v>943</v>
-      </c>
       <c r="AA71">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AB71">
-        <v>2113</v>
+        <v>2078</v>
       </c>
       <c r="AC71">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AD71">
-        <v>1099</v>
+        <v>1069</v>
       </c>
       <c r="AE71">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="AF71">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AG71">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="AH71">
-        <v>1091</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="72" spans="1:34">
@@ -7588,7 +7591,7 @@
         <v>140</v>
       </c>
       <c r="I72">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J72">
         <v>16</v>
@@ -7603,10 +7606,10 @@
         <v>51</v>
       </c>
       <c r="N72">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O72">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P72">
         <v>17</v>
@@ -7615,13 +7618,13 @@
         <v>30</v>
       </c>
       <c r="R72">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S72">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="T72">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U72">
         <v>21</v>
@@ -7630,19 +7633,19 @@
         <v>23</v>
       </c>
       <c r="W72">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X72">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y72">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Z72">
         <v>30</v>
       </c>
       <c r="AA72">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AB72">
         <v>53</v>
@@ -7651,19 +7654,19 @@
         <v>17</v>
       </c>
       <c r="AD72">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE72">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AF72">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG72">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH72">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:34">
@@ -7695,19 +7698,19 @@
         <v>38</v>
       </c>
       <c r="L73">
-        <v>2307</v>
+        <v>1946</v>
       </c>
       <c r="M73">
-        <v>930</v>
+        <v>414</v>
       </c>
       <c r="N73">
-        <v>3584</v>
+        <v>3173</v>
       </c>
       <c r="O73">
         <v>66</v>
       </c>
       <c r="P73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q73">
         <v>16</v>
@@ -7716,13 +7719,13 @@
         <v>2</v>
       </c>
       <c r="T73">
-        <v>1858</v>
+        <v>1616</v>
       </c>
       <c r="U73">
-        <v>1420</v>
+        <v>1251</v>
       </c>
       <c r="V73">
-        <v>411</v>
+        <v>230</v>
       </c>
       <c r="X73">
         <v>42</v>
@@ -7731,10 +7734,10 @@
         <v>14</v>
       </c>
       <c r="Z73">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AA73">
-        <v>999</v>
+        <v>423</v>
       </c>
       <c r="AB73">
         <v>50</v>
@@ -7746,13 +7749,13 @@
         <v>50</v>
       </c>
       <c r="AF73">
-        <v>1370</v>
+        <v>1317</v>
       </c>
       <c r="AG73">
-        <v>967</v>
+        <v>530</v>
       </c>
       <c r="AH73">
-        <v>2976</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="74" spans="1:34">
@@ -7762,6 +7765,9 @@
       <c r="B74" t="s">
         <v>64</v>
       </c>
+      <c r="E74" t="s">
+        <v>69</v>
+      </c>
       <c r="F74">
         <v>31</v>
       </c>
@@ -7771,68 +7777,71 @@
       <c r="H74" t="s">
         <v>142</v>
       </c>
+      <c r="I74">
+        <v>48</v>
+      </c>
       <c r="J74">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="K74">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="L74">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M74">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N74">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P74">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q74">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="R74">
+        <v>5</v>
+      </c>
+      <c r="S74">
+        <v>183</v>
+      </c>
+      <c r="T74">
+        <v>64</v>
+      </c>
+      <c r="U74">
+        <v>112</v>
+      </c>
+      <c r="V74">
+        <v>142</v>
+      </c>
+      <c r="W74">
+        <v>68</v>
+      </c>
+      <c r="Y74">
+        <v>63</v>
+      </c>
+      <c r="Z74">
+        <v>199</v>
+      </c>
+      <c r="AA74">
         <v>8</v>
       </c>
-      <c r="S74">
-        <v>194</v>
-      </c>
-      <c r="T74">
-        <v>71</v>
-      </c>
-      <c r="U74">
-        <v>131</v>
-      </c>
-      <c r="V74">
-        <v>144</v>
-      </c>
-      <c r="W74">
-        <v>83</v>
-      </c>
-      <c r="Y74">
-        <v>185</v>
-      </c>
-      <c r="Z74">
-        <v>201</v>
-      </c>
-      <c r="AA74">
-        <v>25</v>
-      </c>
       <c r="AB74">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AE74">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF74">
         <v>107</v>
       </c>
       <c r="AG74">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="AH74">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:34">
@@ -7855,82 +7864,82 @@
         <v>143</v>
       </c>
       <c r="I75">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J75">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="K75">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="L75">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M75">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="N75">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="O75">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="P75">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q75">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="R75">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="S75">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="T75">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="U75">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="V75">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W75">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="X75">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="Y75">
-        <v>1695</v>
+        <v>1683</v>
       </c>
       <c r="Z75">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AA75">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AB75">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AC75">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AD75">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AE75">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AF75">
         <v>391</v>
       </c>
       <c r="AG75">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AH75">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:34">
@@ -7950,7 +7959,7 @@
         <v>144</v>
       </c>
       <c r="I76">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K76">
         <v>9</v>
@@ -7959,10 +7968,10 @@
         <v>93</v>
       </c>
       <c r="N76">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P76">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q76">
         <v>112</v>
@@ -7977,7 +7986,7 @@
         <v>133</v>
       </c>
       <c r="W76">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X76">
         <v>21</v>
@@ -7995,7 +8004,7 @@
         <v>32</v>
       </c>
       <c r="AE76">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF76">
         <v>136</v>
@@ -8027,16 +8036,16 @@
         <v>145</v>
       </c>
       <c r="I77">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="J77">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K77">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L77">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="M77">
         <v>217</v>
@@ -8045,49 +8054,49 @@
         <v>289</v>
       </c>
       <c r="O77">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="P77">
         <v>190</v>
       </c>
       <c r="Q77">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="R77">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="S77">
         <v>249</v>
       </c>
       <c r="T77">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U77">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V77">
         <v>93</v>
       </c>
       <c r="W77">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X77">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y77">
-        <v>1205</v>
+        <v>961</v>
       </c>
       <c r="Z77">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA77">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AB77">
         <v>276</v>
       </c>
       <c r="AC77">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="AD77">
         <v>243</v>
@@ -8099,7 +8108,7 @@
         <v>82</v>
       </c>
       <c r="AG77">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AH77">
         <v>342</v>
@@ -8125,82 +8134,82 @@
         <v>146</v>
       </c>
       <c r="I78">
-        <v>1704</v>
+        <v>1677</v>
       </c>
       <c r="J78">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="K78">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="L78">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="M78">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="N78">
-        <v>1729</v>
+        <v>1710</v>
       </c>
       <c r="O78">
-        <v>1096</v>
+        <v>1068</v>
       </c>
       <c r="P78">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Q78">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="R78">
-        <v>1121</v>
+        <v>1097</v>
       </c>
       <c r="S78">
-        <v>975</v>
+        <v>944</v>
       </c>
       <c r="T78">
-        <v>940</v>
+        <v>891</v>
       </c>
       <c r="U78">
-        <v>800</v>
+        <v>752</v>
       </c>
       <c r="V78">
-        <v>861</v>
+        <v>818</v>
       </c>
       <c r="W78">
-        <v>685</v>
+        <v>640</v>
       </c>
       <c r="X78">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="Y78">
-        <v>625</v>
+        <v>567</v>
       </c>
       <c r="Z78">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="AA78">
-        <v>2575</v>
+        <v>2552</v>
       </c>
       <c r="AB78">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="AC78">
-        <v>1861</v>
+        <v>1771</v>
       </c>
       <c r="AD78">
-        <v>1801</v>
+        <v>1760</v>
       </c>
       <c r="AE78">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="AF78">
         <v>1058</v>
       </c>
       <c r="AG78">
-        <v>1118</v>
+        <v>1021</v>
       </c>
       <c r="AH78">
-        <v>795</v>
+        <v>786</v>
       </c>
     </row>
     <row r="79" spans="1:34">
@@ -8223,82 +8232,82 @@
         <v>147</v>
       </c>
       <c r="I79">
+        <v>1121</v>
+      </c>
+      <c r="J79">
+        <v>2009</v>
+      </c>
+      <c r="K79">
+        <v>764</v>
+      </c>
+      <c r="L79">
+        <v>1459</v>
+      </c>
+      <c r="M79">
+        <v>1230</v>
+      </c>
+      <c r="N79">
+        <v>1155</v>
+      </c>
+      <c r="O79">
         <v>1124</v>
       </c>
-      <c r="J79">
-        <v>2034</v>
-      </c>
-      <c r="K79">
-        <v>785</v>
-      </c>
-      <c r="L79">
-        <v>1728</v>
-      </c>
-      <c r="M79">
-        <v>1250</v>
-      </c>
-      <c r="N79">
-        <v>1179</v>
-      </c>
-      <c r="O79">
-        <v>1135</v>
-      </c>
       <c r="P79">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="Q79">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="R79">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="S79">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="T79">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="U79">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="V79">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="W79">
-        <v>1730</v>
+        <v>1715</v>
       </c>
       <c r="X79">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="Y79">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Z79">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="AA79">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="AB79">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AC79">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AD79">
-        <v>1578</v>
+        <v>1534</v>
       </c>
       <c r="AE79">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="AF79">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="AG79">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="AH79">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="80" spans="1:34">
@@ -8308,6 +8317,9 @@
       <c r="B80" t="s">
         <v>68</v>
       </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
       <c r="F80">
         <v>35</v>
       </c>
@@ -8318,82 +8330,82 @@
         <v>148</v>
       </c>
       <c r="I80">
-        <v>1785</v>
+        <v>1738</v>
       </c>
       <c r="J80">
-        <v>3282</v>
+        <v>3042</v>
       </c>
       <c r="K80">
-        <v>884</v>
+        <v>1561</v>
       </c>
       <c r="L80">
-        <v>1530</v>
+        <v>1395</v>
       </c>
       <c r="M80">
-        <v>629</v>
+        <v>522</v>
       </c>
       <c r="N80">
-        <v>948</v>
+        <v>800</v>
       </c>
       <c r="O80">
-        <v>2180</v>
+        <v>2062</v>
       </c>
       <c r="P80">
-        <v>2427</v>
+        <v>2389</v>
       </c>
       <c r="Q80">
-        <v>2837</v>
+        <v>2787</v>
       </c>
       <c r="R80">
-        <v>1352</v>
+        <v>1320</v>
       </c>
       <c r="S80">
-        <v>1403</v>
+        <v>1637</v>
       </c>
       <c r="T80">
-        <v>1790</v>
+        <v>1728</v>
       </c>
       <c r="U80">
-        <v>1377</v>
+        <v>1333</v>
       </c>
       <c r="V80">
-        <v>1654</v>
+        <v>1583</v>
       </c>
       <c r="W80">
-        <v>863</v>
+        <v>825</v>
       </c>
       <c r="X80">
-        <v>1749</v>
+        <v>1693</v>
       </c>
       <c r="Y80">
-        <v>949</v>
+        <v>3513</v>
       </c>
       <c r="Z80">
-        <v>2855</v>
+        <v>2836</v>
       </c>
       <c r="AA80">
-        <v>1178</v>
+        <v>1100</v>
       </c>
       <c r="AB80">
-        <v>1865</v>
+        <v>1797</v>
       </c>
       <c r="AC80">
-        <v>1464</v>
+        <v>1396</v>
       </c>
       <c r="AD80">
-        <v>1967</v>
+        <v>1843</v>
       </c>
       <c r="AE80">
-        <v>2340</v>
+        <v>2118</v>
       </c>
       <c r="AF80">
-        <v>2517</v>
+        <v>2502</v>
       </c>
       <c r="AG80">
-        <v>1247</v>
+        <v>1121</v>
       </c>
       <c r="AH80">
-        <v>2789</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="81" spans="1:34">
@@ -8416,82 +8428,82 @@
         <v>149</v>
       </c>
       <c r="I81">
-        <v>4463</v>
+        <v>4384</v>
       </c>
       <c r="J81">
-        <v>8212</v>
+        <v>8124</v>
       </c>
       <c r="K81">
-        <v>4279</v>
+        <v>4239</v>
       </c>
       <c r="L81">
-        <v>8972</v>
+        <v>8918</v>
       </c>
       <c r="M81">
-        <v>10371</v>
+        <v>10252</v>
       </c>
       <c r="N81">
-        <v>9860</v>
+        <v>9696</v>
       </c>
       <c r="O81">
-        <v>5406</v>
+        <v>5357</v>
       </c>
       <c r="P81">
-        <v>4033</v>
+        <v>3987</v>
       </c>
       <c r="Q81">
-        <v>5103</v>
+        <v>5012</v>
       </c>
       <c r="R81">
-        <v>3763</v>
+        <v>3686</v>
       </c>
       <c r="S81">
-        <v>3712</v>
+        <v>3634</v>
       </c>
       <c r="T81">
-        <v>4437</v>
+        <v>4328</v>
       </c>
       <c r="U81">
-        <v>2951</v>
+        <v>2895</v>
       </c>
       <c r="V81">
-        <v>1557</v>
+        <v>1517</v>
       </c>
       <c r="W81">
-        <v>3388</v>
+        <v>3316</v>
       </c>
       <c r="X81">
-        <v>5235</v>
+        <v>5131</v>
       </c>
       <c r="Y81">
-        <v>2383</v>
+        <v>2306</v>
       </c>
       <c r="Z81">
-        <v>4076</v>
+        <v>4051</v>
       </c>
       <c r="AA81">
-        <v>4711</v>
+        <v>4597</v>
       </c>
       <c r="AB81">
-        <v>3736</v>
+        <v>3639</v>
       </c>
       <c r="AC81">
-        <v>3651</v>
+        <v>3574</v>
       </c>
       <c r="AD81">
-        <v>3272</v>
+        <v>3147</v>
       </c>
       <c r="AE81">
-        <v>4878</v>
+        <v>4828</v>
       </c>
       <c r="AF81">
-        <v>2930</v>
+        <v>2923</v>
       </c>
       <c r="AG81">
-        <v>2776</v>
+        <v>2671</v>
       </c>
       <c r="AH81">
-        <v>3360</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="82" spans="1:34">
@@ -8514,79 +8526,79 @@
         <v>150</v>
       </c>
       <c r="I82">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="J82">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="K82">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="L82">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="M82">
-        <v>898</v>
+        <v>869</v>
       </c>
       <c r="N82">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="O82">
         <v>394</v>
       </c>
       <c r="P82">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="Q82">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="R82">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S82">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="T82">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="U82">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="V82">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="W82">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="X82">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="Y82">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="Z82">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AA82">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AB82">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="AC82">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="AD82">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="AE82">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF82">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="AG82">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="AH82">
         <v>415</v>

--- a/Data/branch_wise_aging_stock_copy.xlsx
+++ b/Data/branch_wise_aging_stock_copy.xlsx
@@ -965,7 +965,7 @@
         <v>158</v>
       </c>
       <c r="L2">
-        <v>611</v>
+        <v>658</v>
       </c>
       <c r="M2">
         <v>173</v>
@@ -980,13 +980,13 @@
         <v>91</v>
       </c>
       <c r="Q2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="R2">
         <v>59</v>
       </c>
       <c r="S2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T2">
         <v>64</v>
@@ -1004,7 +1004,7 @@
         <v>114</v>
       </c>
       <c r="Y2">
-        <v>1097</v>
+        <v>617</v>
       </c>
       <c r="Z2">
         <v>255</v>
@@ -1013,7 +1013,7 @@
         <v>60</v>
       </c>
       <c r="AB2">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="AC2">
         <v>68</v>
@@ -1057,16 +1057,16 @@
         <v>802</v>
       </c>
       <c r="K3">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L3">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="M3">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="N3">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O3">
         <v>500</v>
@@ -1075,16 +1075,16 @@
         <v>441</v>
       </c>
       <c r="Q3">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="R3">
         <v>301</v>
       </c>
       <c r="S3">
-        <v>1086</v>
+        <v>1066</v>
       </c>
       <c r="T3">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U3">
         <v>212</v>
@@ -1093,13 +1093,13 @@
         <v>476</v>
       </c>
       <c r="W3">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="X3">
         <v>272</v>
       </c>
       <c r="Y3">
-        <v>5263</v>
+        <v>5260</v>
       </c>
       <c r="Z3">
         <v>648</v>
@@ -1114,16 +1114,16 @@
         <v>194</v>
       </c>
       <c r="AD3">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="AE3">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AF3">
         <v>218</v>
       </c>
       <c r="AG3">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AH3">
         <v>478</v>
@@ -1149,31 +1149,31 @@
         <v>72</v>
       </c>
       <c r="I4">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J4">
         <v>206</v>
       </c>
       <c r="K4">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L4">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M4">
         <v>202</v>
       </c>
       <c r="N4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O4">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P4">
         <v>169</v>
       </c>
       <c r="Q4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R4">
         <v>39</v>
@@ -1182,13 +1182,13 @@
         <v>110</v>
       </c>
       <c r="T4">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="U4">
         <v>154</v>
       </c>
       <c r="V4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W4">
         <v>165</v>
@@ -1203,7 +1203,7 @@
         <v>462</v>
       </c>
       <c r="AA4">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AB4">
         <v>158</v>
@@ -1212,7 +1212,7 @@
         <v>103</v>
       </c>
       <c r="AD4">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE4">
         <v>66</v>
@@ -1253,16 +1253,16 @@
         <v>218</v>
       </c>
       <c r="K5">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L5">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M5">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N5">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="O5">
         <v>178</v>
@@ -1280,7 +1280,7 @@
         <v>262</v>
       </c>
       <c r="T5">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U5">
         <v>162</v>
@@ -1292,10 +1292,10 @@
         <v>157</v>
       </c>
       <c r="X5">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Y5">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="Z5">
         <v>429</v>
@@ -1307,16 +1307,16 @@
         <v>384</v>
       </c>
       <c r="AC5">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AD5">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AE5">
         <v>202</v>
       </c>
       <c r="AF5">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG5">
         <v>219</v>
@@ -1345,49 +1345,49 @@
         <v>74</v>
       </c>
       <c r="I6">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J6">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="K6">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="L6">
-        <v>1149</v>
+        <v>1110</v>
       </c>
       <c r="M6">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N6">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="O6">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="P6">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="Q6">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="R6">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="S6">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="T6">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="U6">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V6">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W6">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="X6">
         <v>799</v>
@@ -1396,28 +1396,28 @@
         <v>5149</v>
       </c>
       <c r="Z6">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AA6">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AB6">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AC6">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AD6">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="AE6">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="AF6">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG6">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="AH6">
         <v>367</v>
@@ -1440,79 +1440,82 @@
         <v>75</v>
       </c>
       <c r="I7">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="J7">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="K7">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="L7">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="M7">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="N7">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="O7">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="P7">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="Q7">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="R7">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="S7">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="T7">
-        <v>702</v>
+        <v>655</v>
       </c>
       <c r="U7">
-        <v>759</v>
+        <v>729</v>
       </c>
       <c r="V7">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="W7">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="X7">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="Y7">
-        <v>296</v>
+        <v>178</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="AB7">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AC7">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="AD7">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="AE7">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="AF7">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AG7">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="AH7">
-        <v>331</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1592,7 +1595,7 @@
         <v>56</v>
       </c>
       <c r="AB8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AC8">
         <v>47</v>
@@ -1633,79 +1636,79 @@
         <v>77</v>
       </c>
       <c r="I9">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J9">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K9">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L9">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="M9">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N9">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O9">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="P9">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="Q9">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="R9">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="S9">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T9">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="U9">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="V9">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="W9">
         <v>163</v>
       </c>
       <c r="X9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y9">
-        <v>669</v>
+        <v>537</v>
       </c>
       <c r="Z9">
         <v>221</v>
       </c>
       <c r="AA9">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AB9">
         <v>320</v>
       </c>
       <c r="AC9">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="AD9">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AE9">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF9">
         <v>386</v>
       </c>
       <c r="AG9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH9">
         <v>350</v>
@@ -1740,7 +1743,7 @@
         <v>112</v>
       </c>
       <c r="L10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M10">
         <v>99</v>
@@ -1764,7 +1767,7 @@
         <v>94</v>
       </c>
       <c r="T10">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U10">
         <v>37</v>
@@ -1788,7 +1791,7 @@
         <v>29</v>
       </c>
       <c r="AB10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC10">
         <v>101</v>
@@ -1797,7 +1800,7 @@
         <v>124</v>
       </c>
       <c r="AE10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF10">
         <v>21</v>
@@ -1829,52 +1832,52 @@
         <v>79</v>
       </c>
       <c r="I11">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="J11">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="K11">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="L11">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="M11">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N11">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="O11">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="P11">
-        <v>390</v>
+        <v>541</v>
       </c>
       <c r="Q11">
-        <v>1246</v>
+        <v>1216</v>
       </c>
       <c r="R11">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="S11">
         <v>784</v>
       </c>
       <c r="T11">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="U11">
         <v>588</v>
       </c>
       <c r="V11">
-        <v>451</v>
+        <v>611</v>
       </c>
       <c r="W11">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="X11">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Y11">
         <v>1261</v>
@@ -1883,28 +1886,28 @@
         <v>778</v>
       </c>
       <c r="AA11">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="AB11">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AC11">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="AD11">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="AE11">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="AF11">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="AG11">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="AH11">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1927,40 +1930,40 @@
         <v>88</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L12">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M12">
         <v>140</v>
       </c>
       <c r="N12">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O12">
         <v>105</v>
       </c>
       <c r="P12">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q12">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R12">
         <v>97</v>
       </c>
       <c r="S12">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T12">
         <v>132</v>
       </c>
       <c r="U12">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V12">
         <v>44</v>
@@ -1972,7 +1975,7 @@
         <v>94</v>
       </c>
       <c r="Y12">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z12">
         <v>122</v>
@@ -1981,25 +1984,25 @@
         <v>94</v>
       </c>
       <c r="AB12">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AC12">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AD12">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AE12">
         <v>110</v>
       </c>
       <c r="AF12">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AG12">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH12">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -2022,52 +2025,52 @@
         <v>81</v>
       </c>
       <c r="I13">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="J13">
         <v>1203</v>
       </c>
       <c r="K13">
-        <v>830</v>
+        <v>801</v>
       </c>
       <c r="L13">
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="M13">
-        <v>1552</v>
+        <v>1521</v>
       </c>
       <c r="N13">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="O13">
-        <v>1501</v>
+        <v>1483</v>
       </c>
       <c r="P13">
-        <v>1018</v>
+        <v>977</v>
       </c>
       <c r="Q13">
-        <v>1441</v>
+        <v>1411</v>
       </c>
       <c r="R13">
-        <v>662</v>
+        <v>617</v>
       </c>
       <c r="S13">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="T13">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="U13">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="V13">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="W13">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="X13">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="Y13">
         <v>503</v>
@@ -2076,25 +2079,25 @@
         <v>1360</v>
       </c>
       <c r="AA13">
-        <v>1392</v>
+        <v>1379</v>
       </c>
       <c r="AB13">
         <v>1982</v>
       </c>
       <c r="AC13">
-        <v>1067</v>
+        <v>1013</v>
       </c>
       <c r="AD13">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="AE13">
-        <v>931</v>
+        <v>907</v>
       </c>
       <c r="AF13">
         <v>1301</v>
       </c>
       <c r="AG13">
-        <v>1572</v>
+        <v>1552</v>
       </c>
       <c r="AH13">
         <v>1913</v>
@@ -2120,40 +2123,40 @@
         <v>82</v>
       </c>
       <c r="I14">
-        <v>2983</v>
+        <v>2977</v>
       </c>
       <c r="J14">
         <v>1302</v>
       </c>
       <c r="K14">
-        <v>2387</v>
+        <v>2351</v>
       </c>
       <c r="L14">
-        <v>2451</v>
+        <v>2409</v>
       </c>
       <c r="M14">
-        <v>2226</v>
+        <v>2200</v>
       </c>
       <c r="N14">
-        <v>2605</v>
+        <v>2599</v>
       </c>
       <c r="O14">
-        <v>2020</v>
+        <v>1987</v>
       </c>
       <c r="P14">
-        <v>2978</v>
+        <v>2950</v>
       </c>
       <c r="Q14">
-        <v>1634</v>
+        <v>1622</v>
       </c>
       <c r="R14">
-        <v>2593</v>
+        <v>2578</v>
       </c>
       <c r="S14">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="T14">
-        <v>2340</v>
+        <v>2301</v>
       </c>
       <c r="U14">
         <v>1104</v>
@@ -2162,10 +2165,10 @@
         <v>2528</v>
       </c>
       <c r="W14">
-        <v>2163</v>
+        <v>2148</v>
       </c>
       <c r="X14">
-        <v>1539</v>
+        <v>1557</v>
       </c>
       <c r="Y14">
         <v>2285</v>
@@ -2174,16 +2177,16 @@
         <v>3409</v>
       </c>
       <c r="AA14">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="AB14">
         <v>1633</v>
       </c>
       <c r="AC14">
-        <v>1213</v>
+        <v>1067</v>
       </c>
       <c r="AD14">
-        <v>1851</v>
+        <v>1830</v>
       </c>
       <c r="AE14">
         <v>2475</v>
@@ -2192,10 +2195,10 @@
         <v>2291</v>
       </c>
       <c r="AG14">
-        <v>1901</v>
+        <v>1891</v>
       </c>
       <c r="AH14">
-        <v>2509</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2218,82 +2221,82 @@
         <v>83</v>
       </c>
       <c r="I15">
-        <v>3181</v>
+        <v>3150</v>
       </c>
       <c r="J15">
-        <v>6159</v>
+        <v>6146</v>
       </c>
       <c r="K15">
-        <v>5925</v>
+        <v>5887</v>
       </c>
       <c r="L15">
-        <v>1839</v>
+        <v>1781</v>
       </c>
       <c r="M15">
-        <v>2756</v>
+        <v>2717</v>
       </c>
       <c r="N15">
-        <v>5188</v>
+        <v>5150</v>
       </c>
       <c r="O15">
-        <v>4015</v>
+        <v>3994</v>
       </c>
       <c r="P15">
-        <v>6905</v>
+        <v>6886</v>
       </c>
       <c r="Q15">
-        <v>5817</v>
+        <v>5750</v>
       </c>
       <c r="R15">
-        <v>2396</v>
+        <v>2320</v>
       </c>
       <c r="S15">
-        <v>7059</v>
+        <v>7034</v>
       </c>
       <c r="T15">
-        <v>4673</v>
+        <v>4628</v>
       </c>
       <c r="U15">
-        <v>4339</v>
+        <v>4308</v>
       </c>
       <c r="V15">
-        <v>4158</v>
+        <v>4142</v>
       </c>
       <c r="W15">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="X15">
-        <v>3847</v>
+        <v>3827</v>
       </c>
       <c r="Y15">
         <v>4775</v>
       </c>
       <c r="Z15">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="AA15">
-        <v>3768</v>
+        <v>3738</v>
       </c>
       <c r="AB15">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="AC15">
-        <v>3288</v>
+        <v>3272</v>
       </c>
       <c r="AD15">
-        <v>2439</v>
+        <v>2395</v>
       </c>
       <c r="AE15">
-        <v>3526</v>
+        <v>3499</v>
       </c>
       <c r="AF15">
-        <v>5412</v>
+        <v>5407</v>
       </c>
       <c r="AG15">
-        <v>2065</v>
+        <v>2016</v>
       </c>
       <c r="AH15">
-        <v>3501</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2316,82 +2319,82 @@
         <v>84</v>
       </c>
       <c r="I16">
-        <v>1264</v>
+        <v>1238</v>
       </c>
       <c r="J16">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="K16">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="L16">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="M16">
-        <v>1427</v>
+        <v>1413</v>
       </c>
       <c r="N16">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="O16">
-        <v>1164</v>
+        <v>1144</v>
       </c>
       <c r="P16">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="Q16">
-        <v>1721</v>
+        <v>1695</v>
       </c>
       <c r="R16">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="S16">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="T16">
-        <v>935</v>
+        <v>1761</v>
       </c>
       <c r="U16">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="V16">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="W16">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="X16">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="Y16">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Z16">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AA16">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="AB16">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AC16">
-        <v>2110</v>
+        <v>2093</v>
       </c>
       <c r="AD16">
-        <v>1514</v>
+        <v>1496</v>
       </c>
       <c r="AE16">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="AF16">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="AG16">
-        <v>1295</v>
+        <v>1271</v>
       </c>
       <c r="AH16">
-        <v>1462</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2414,82 +2417,82 @@
         <v>85</v>
       </c>
       <c r="I17">
-        <v>2589</v>
+        <v>2536</v>
       </c>
       <c r="J17">
-        <v>6572</v>
+        <v>6559</v>
       </c>
       <c r="K17">
-        <v>3934</v>
+        <v>3894</v>
       </c>
       <c r="L17">
-        <v>2558</v>
+        <v>2542</v>
       </c>
       <c r="M17">
-        <v>3111</v>
+        <v>3085</v>
       </c>
       <c r="N17">
-        <v>2063</v>
+        <v>2033</v>
       </c>
       <c r="O17">
-        <v>2885</v>
+        <v>2858</v>
       </c>
       <c r="P17">
-        <v>3394</v>
+        <v>4019</v>
       </c>
       <c r="Q17">
-        <v>5448</v>
+        <v>5373</v>
       </c>
       <c r="R17">
-        <v>4025</v>
+        <v>3963</v>
       </c>
       <c r="S17">
-        <v>4180</v>
+        <v>4135</v>
       </c>
       <c r="T17">
-        <v>2461</v>
+        <v>2395</v>
       </c>
       <c r="U17">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="V17">
-        <v>4466</v>
+        <v>5801</v>
       </c>
       <c r="W17">
-        <v>2510</v>
+        <v>2496</v>
       </c>
       <c r="X17">
-        <v>1902</v>
+        <v>1880</v>
       </c>
       <c r="Y17">
-        <v>7822</v>
+        <v>7160</v>
       </c>
       <c r="Z17">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="AA17">
-        <v>3083</v>
+        <v>3068</v>
       </c>
       <c r="AB17">
-        <v>2900</v>
+        <v>2894</v>
       </c>
       <c r="AC17">
-        <v>5869</v>
+        <v>5839</v>
       </c>
       <c r="AD17">
-        <v>2440</v>
+        <v>2395</v>
       </c>
       <c r="AE17">
-        <v>2789</v>
+        <v>4080</v>
       </c>
       <c r="AF17">
-        <v>4494</v>
+        <v>4488</v>
       </c>
       <c r="AG17">
-        <v>1965</v>
+        <v>1923</v>
       </c>
       <c r="AH17">
-        <v>2068</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2512,13 +2515,13 @@
         <v>86</v>
       </c>
       <c r="I18">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J18">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K18">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L18">
         <v>261</v>
@@ -2527,28 +2530,28 @@
         <v>217</v>
       </c>
       <c r="N18">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O18">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P18">
         <v>320</v>
       </c>
       <c r="Q18">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R18">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S18">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="T18">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="U18">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V18">
         <v>370</v>
@@ -2566,28 +2569,28 @@
         <v>355</v>
       </c>
       <c r="AA18">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AB18">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC18">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AD18">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AE18">
         <v>103</v>
       </c>
       <c r="AF18">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AG18">
         <v>544</v>
       </c>
       <c r="AH18">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2610,7 +2613,7 @@
         <v>87</v>
       </c>
       <c r="I19">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J19">
         <v>182</v>
@@ -2625,16 +2628,16 @@
         <v>91</v>
       </c>
       <c r="N19">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O19">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P19">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q19">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R19">
         <v>189</v>
@@ -2670,10 +2673,10 @@
         <v>674</v>
       </c>
       <c r="AC19">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AD19">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AE19">
         <v>174</v>
@@ -2708,82 +2711,82 @@
         <v>88</v>
       </c>
       <c r="I20">
-        <v>6749</v>
+        <v>6716</v>
       </c>
       <c r="J20">
-        <v>8914</v>
+        <v>8910</v>
       </c>
       <c r="K20">
-        <v>10966</v>
+        <v>10849</v>
       </c>
       <c r="L20">
-        <v>7129</v>
+        <v>7036</v>
       </c>
       <c r="M20">
-        <v>11693</v>
+        <v>11580</v>
       </c>
       <c r="N20">
-        <v>9263</v>
+        <v>9204</v>
       </c>
       <c r="O20">
-        <v>6782</v>
+        <v>6744</v>
       </c>
       <c r="P20">
-        <v>7809</v>
+        <v>8916</v>
       </c>
       <c r="Q20">
-        <v>7276</v>
+        <v>7166</v>
       </c>
       <c r="R20">
-        <v>6242</v>
+        <v>6170</v>
       </c>
       <c r="S20">
-        <v>10469</v>
+        <v>10361</v>
       </c>
       <c r="T20">
-        <v>4801</v>
+        <v>4746</v>
       </c>
       <c r="U20">
-        <v>4725</v>
+        <v>4720</v>
       </c>
       <c r="V20">
-        <v>4223</v>
+        <v>4198</v>
       </c>
       <c r="W20">
-        <v>4449</v>
+        <v>4388</v>
       </c>
       <c r="X20">
-        <v>6812</v>
+        <v>6786</v>
       </c>
       <c r="Y20">
-        <v>3425</v>
+        <v>3137</v>
       </c>
       <c r="Z20">
         <v>3165</v>
       </c>
       <c r="AA20">
-        <v>5181</v>
+        <v>5120</v>
       </c>
       <c r="AB20">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="AC20">
-        <v>7302</v>
+        <v>7241</v>
       </c>
       <c r="AD20">
-        <v>7979</v>
+        <v>7887</v>
       </c>
       <c r="AE20">
-        <v>3896</v>
+        <v>3828</v>
       </c>
       <c r="AF20">
-        <v>5358</v>
+        <v>5342</v>
       </c>
       <c r="AG20">
-        <v>6866</v>
+        <v>6807</v>
       </c>
       <c r="AH20">
-        <v>5568</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2793,9 +2796,6 @@
       <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
       <c r="F21">
         <v>10</v>
       </c>
@@ -2809,52 +2809,52 @@
         <v>388</v>
       </c>
       <c r="J21">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K21">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L21">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="M21">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="N21">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="O21">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="P21">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q21">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="R21">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="S21">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="T21">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="U21">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V21">
         <v>109</v>
       </c>
       <c r="W21">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="X21">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Y21">
-        <v>211</v>
+        <v>5161</v>
       </c>
       <c r="Z21">
         <v>198</v>
@@ -2863,19 +2863,19 @@
         <v>426</v>
       </c>
       <c r="AC21">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AD21">
         <v>84</v>
       </c>
       <c r="AE21">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="AF21">
         <v>865</v>
       </c>
       <c r="AG21">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AH21">
         <v>490</v>
@@ -2901,52 +2901,52 @@
         <v>90</v>
       </c>
       <c r="I22">
-        <v>6998</v>
+        <v>6937</v>
       </c>
       <c r="J22">
-        <v>11128</v>
+        <v>11114</v>
       </c>
       <c r="K22">
-        <v>7294</v>
+        <v>7261</v>
       </c>
       <c r="L22">
-        <v>5520</v>
+        <v>5491</v>
       </c>
       <c r="M22">
-        <v>5442</v>
+        <v>5422</v>
       </c>
       <c r="N22">
-        <v>6421</v>
+        <v>6315</v>
       </c>
       <c r="O22">
-        <v>6932</v>
+        <v>6914</v>
       </c>
       <c r="P22">
-        <v>5469</v>
+        <v>6529</v>
       </c>
       <c r="Q22">
-        <v>9069</v>
+        <v>8997</v>
       </c>
       <c r="R22">
-        <v>2905</v>
+        <v>2864</v>
       </c>
       <c r="S22">
-        <v>8804</v>
+        <v>8767</v>
       </c>
       <c r="T22">
-        <v>3102</v>
+        <v>3038</v>
       </c>
       <c r="U22">
-        <v>5818</v>
+        <v>5798</v>
       </c>
       <c r="V22">
-        <v>4931</v>
+        <v>4906</v>
       </c>
       <c r="W22">
-        <v>3626</v>
+        <v>3581</v>
       </c>
       <c r="X22">
-        <v>5387</v>
+        <v>5361</v>
       </c>
       <c r="Y22">
         <v>2496</v>
@@ -2955,28 +2955,28 @@
         <v>3102</v>
       </c>
       <c r="AA22">
-        <v>4822</v>
+        <v>4790</v>
       </c>
       <c r="AB22">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="AC22">
-        <v>4082</v>
+        <v>3965</v>
       </c>
       <c r="AD22">
-        <v>7176</v>
+        <v>7091</v>
       </c>
       <c r="AE22">
-        <v>4002</v>
+        <v>3983</v>
       </c>
       <c r="AF22">
-        <v>7348</v>
+        <v>7322</v>
       </c>
       <c r="AG22">
-        <v>6448</v>
+        <v>6416</v>
       </c>
       <c r="AH22">
-        <v>5073</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3008,13 +3008,13 @@
         <v>1346</v>
       </c>
       <c r="L23">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="M23">
         <v>957</v>
       </c>
       <c r="N23">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="O23">
         <v>1371</v>
@@ -3026,7 +3026,7 @@
         <v>708</v>
       </c>
       <c r="R23">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="S23">
         <v>560</v>
@@ -3047,7 +3047,7 @@
         <v>834</v>
       </c>
       <c r="Y23">
-        <v>2750</v>
+        <v>2594</v>
       </c>
       <c r="Z23">
         <v>1653</v>
@@ -3097,82 +3097,82 @@
         <v>92</v>
       </c>
       <c r="I24">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J24">
         <v>489</v>
       </c>
       <c r="K24">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L24">
         <v>249</v>
       </c>
       <c r="M24">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N24">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O24">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="P24">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q24">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R24">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S24">
         <v>249</v>
       </c>
       <c r="T24">
+        <v>150</v>
+      </c>
+      <c r="U24">
+        <v>194</v>
+      </c>
+      <c r="V24">
         <v>156</v>
-      </c>
-      <c r="U24">
-        <v>198</v>
-      </c>
-      <c r="V24">
-        <v>157</v>
       </c>
       <c r="W24">
         <v>162</v>
       </c>
       <c r="X24">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y24">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z24">
         <v>182</v>
       </c>
       <c r="AA24">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AB24">
         <v>343</v>
       </c>
       <c r="AC24">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AD24">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AE24">
         <v>448</v>
       </c>
       <c r="AF24">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG24">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AH24">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -3195,7 +3195,7 @@
         <v>93</v>
       </c>
       <c r="I25">
-        <v>5007</v>
+        <v>4997</v>
       </c>
       <c r="J25">
         <v>4850</v>
@@ -3204,43 +3204,43 @@
         <v>3224</v>
       </c>
       <c r="L25">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="M25">
-        <v>2469</v>
+        <v>2459</v>
       </c>
       <c r="N25">
-        <v>2798</v>
+        <v>2783</v>
       </c>
       <c r="O25">
-        <v>2761</v>
+        <v>2756</v>
       </c>
       <c r="P25">
         <v>3950</v>
       </c>
       <c r="Q25">
-        <v>3770</v>
+        <v>3655</v>
       </c>
       <c r="R25">
-        <v>852</v>
+        <v>792</v>
       </c>
       <c r="S25">
         <v>3040</v>
       </c>
       <c r="T25">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="U25">
-        <v>5281</v>
+        <v>5220</v>
       </c>
       <c r="V25">
         <v>2392</v>
       </c>
       <c r="W25">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="X25">
-        <v>1756</v>
+        <v>1731</v>
       </c>
       <c r="Y25">
         <v>1492</v>
@@ -3264,13 +3264,13 @@
         <v>2531</v>
       </c>
       <c r="AF25">
-        <v>4924</v>
+        <v>4814</v>
       </c>
       <c r="AG25">
-        <v>3322</v>
+        <v>3287</v>
       </c>
       <c r="AH25">
-        <v>3177</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3293,22 +3293,22 @@
         <v>94</v>
       </c>
       <c r="I26">
-        <v>2117</v>
+        <v>2092</v>
       </c>
       <c r="J26">
         <v>8408</v>
       </c>
       <c r="K26">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="L26">
-        <v>5085</v>
+        <v>5075</v>
       </c>
       <c r="M26">
         <v>2128</v>
       </c>
       <c r="N26">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="O26">
         <v>1511</v>
@@ -3317,10 +3317,10 @@
         <v>1499</v>
       </c>
       <c r="Q26">
-        <v>9004</v>
+        <v>8894</v>
       </c>
       <c r="R26">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="S26">
         <v>3643</v>
@@ -3329,7 +3329,7 @@
         <v>4624</v>
       </c>
       <c r="U26">
-        <v>3779</v>
+        <v>3759</v>
       </c>
       <c r="V26">
         <v>1528</v>
@@ -3338,7 +3338,7 @@
         <v>1609</v>
       </c>
       <c r="X26">
-        <v>7704</v>
+        <v>7694</v>
       </c>
       <c r="Y26">
         <v>2029</v>
@@ -3356,19 +3356,19 @@
         <v>2638</v>
       </c>
       <c r="AD26">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="AE26">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="AF26">
         <v>10062</v>
       </c>
       <c r="AG26">
-        <v>4155</v>
+        <v>4150</v>
       </c>
       <c r="AH26">
-        <v>3558</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -3391,7 +3391,7 @@
         <v>95</v>
       </c>
       <c r="I27">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J27">
         <v>202</v>
@@ -3406,10 +3406,10 @@
         <v>140</v>
       </c>
       <c r="N27">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O27">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P27">
         <v>159</v>
@@ -3418,13 +3418,13 @@
         <v>105</v>
       </c>
       <c r="R27">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S27">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T27">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U27">
         <v>91</v>
@@ -3436,7 +3436,7 @@
         <v>108</v>
       </c>
       <c r="X27">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y27">
         <v>1635</v>
@@ -3451,16 +3451,16 @@
         <v>195</v>
       </c>
       <c r="AC27">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AD27">
         <v>120</v>
       </c>
       <c r="AE27">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF27">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG27">
         <v>117</v>
@@ -3495,7 +3495,7 @@
         <v>36</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M28">
         <v>30</v>
@@ -3599,7 +3599,7 @@
         <v>64</v>
       </c>
       <c r="O29">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P29">
         <v>54</v>
@@ -3617,7 +3617,7 @@
         <v>52</v>
       </c>
       <c r="U29">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V29">
         <v>43</v>
@@ -3635,7 +3635,7 @@
         <v>78</v>
       </c>
       <c r="AA29">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB29">
         <v>92</v>
@@ -3644,7 +3644,7 @@
         <v>44</v>
       </c>
       <c r="AD29">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE29">
         <v>18</v>
@@ -3653,7 +3653,7 @@
         <v>33</v>
       </c>
       <c r="AG29">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH29">
         <v>48</v>
@@ -3682,7 +3682,7 @@
         <v>24</v>
       </c>
       <c r="J30">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>42</v>
@@ -3700,7 +3700,7 @@
         <v>82</v>
       </c>
       <c r="P30">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q30">
         <v>76</v>
@@ -3709,7 +3709,7 @@
         <v>54</v>
       </c>
       <c r="S30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T30">
         <v>22</v>
@@ -3727,13 +3727,13 @@
         <v>22</v>
       </c>
       <c r="Y30">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z30">
         <v>123</v>
       </c>
       <c r="AA30">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB30">
         <v>79</v>
@@ -3742,7 +3742,7 @@
         <v>26</v>
       </c>
       <c r="AD30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE30">
         <v>27</v>
@@ -3751,7 +3751,7 @@
         <v>45</v>
       </c>
       <c r="AG30">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH30">
         <v>63</v>
@@ -3801,19 +3801,19 @@
         <v>68</v>
       </c>
       <c r="Q31">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R31">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S31">
         <v>147</v>
       </c>
       <c r="T31">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U31">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="V31">
         <v>113</v>
@@ -3822,7 +3822,7 @@
         <v>117</v>
       </c>
       <c r="X31">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y31">
         <v>354</v>
@@ -3831,25 +3831,25 @@
         <v>99</v>
       </c>
       <c r="AA31">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AB31">
         <v>66</v>
       </c>
       <c r="AC31">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AD31">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AE31">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF31">
         <v>57</v>
       </c>
       <c r="AG31">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AH31">
         <v>95</v>
@@ -3875,10 +3875,10 @@
         <v>100</v>
       </c>
       <c r="I32">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J32">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K32">
         <v>176</v>
@@ -3887,10 +3887,10 @@
         <v>74</v>
       </c>
       <c r="M32">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N32">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="O32">
         <v>81</v>
@@ -3902,13 +3902,13 @@
         <v>58</v>
       </c>
       <c r="R32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S32">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="T32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U32">
         <v>103</v>
@@ -3917,7 +3917,7 @@
         <v>79</v>
       </c>
       <c r="W32">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y32">
         <v>252</v>
@@ -3926,16 +3926,16 @@
         <v>121</v>
       </c>
       <c r="AA32">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="AB32">
         <v>228</v>
       </c>
       <c r="AC32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AD32">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AE32">
         <v>84</v>
@@ -3970,7 +3970,7 @@
         <v>101</v>
       </c>
       <c r="I33">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>105</v>
@@ -3979,16 +3979,16 @@
         <v>49</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O33">
         <v>25</v>
       </c>
       <c r="P33">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q33">
         <v>26</v>
@@ -4030,7 +4030,7 @@
         <v>20</v>
       </c>
       <c r="AD33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE33">
         <v>44</v>
@@ -4065,79 +4065,82 @@
         <v>102</v>
       </c>
       <c r="I34">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="J34">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K34">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M34">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N34">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O34">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="P34">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="Q34">
+        <v>144</v>
+      </c>
+      <c r="R34">
+        <v>413</v>
+      </c>
+      <c r="S34">
+        <v>165</v>
+      </c>
+      <c r="T34">
+        <v>295</v>
+      </c>
+      <c r="U34">
+        <v>223</v>
+      </c>
+      <c r="V34">
         <v>161</v>
       </c>
-      <c r="R34">
-        <v>130</v>
-      </c>
-      <c r="S34">
-        <v>179</v>
-      </c>
-      <c r="T34">
-        <v>304</v>
-      </c>
-      <c r="U34">
-        <v>230</v>
-      </c>
-      <c r="V34">
-        <v>167</v>
-      </c>
       <c r="W34">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="X34">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="Y34">
-        <v>68</v>
+        <v>4747</v>
       </c>
       <c r="Z34">
         <v>117</v>
       </c>
       <c r="AA34">
-        <v>88</v>
+        <v>71</v>
+      </c>
+      <c r="AB34">
+        <v>34</v>
       </c>
       <c r="AC34">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AD34">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AE34">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AF34">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AG34">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="AH34">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:34">
@@ -4157,73 +4160,73 @@
         <v>103</v>
       </c>
       <c r="I35">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J35">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K35">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L35">
         <v>352</v>
       </c>
       <c r="M35">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N35">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O35">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P35">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q35">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R35">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="S35">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V35">
         <v>186</v>
       </c>
       <c r="W35">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="X35">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Y35">
         <v>119</v>
       </c>
       <c r="Z35">
-        <v>394</v>
+        <v>286</v>
       </c>
       <c r="AA35">
         <v>617</v>
       </c>
       <c r="AB35">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="AD35">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AE35">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AF35">
         <v>183</v>
@@ -4232,7 +4235,7 @@
         <v>51</v>
       </c>
       <c r="AH35">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:34">
@@ -4252,7 +4255,7 @@
         <v>104</v>
       </c>
       <c r="I36">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J36">
         <v>137</v>
@@ -4261,19 +4264,19 @@
         <v>174</v>
       </c>
       <c r="L36">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M36">
         <v>161</v>
       </c>
       <c r="N36">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O36">
         <v>185</v>
       </c>
       <c r="P36">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q36">
         <v>46</v>
@@ -4285,10 +4288,10 @@
         <v>117</v>
       </c>
       <c r="T36">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U36">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V36">
         <v>105</v>
@@ -4300,13 +4303,13 @@
         <v>68</v>
       </c>
       <c r="Y36">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="Z36">
         <v>87</v>
       </c>
       <c r="AA36">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AB36">
         <v>183</v>
@@ -4318,7 +4321,7 @@
         <v>101</v>
       </c>
       <c r="AE36">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AF36">
         <v>208</v>
@@ -4350,82 +4353,82 @@
         <v>105</v>
       </c>
       <c r="I37">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="J37">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K37">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L37">
+        <v>269</v>
+      </c>
+      <c r="M37">
         <v>270</v>
       </c>
-      <c r="M37">
-        <v>273</v>
-      </c>
       <c r="N37">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O37">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P37">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Q37">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="R37">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="S37">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="T37">
+        <v>55</v>
+      </c>
+      <c r="U37">
         <v>73</v>
       </c>
-      <c r="U37">
-        <v>76</v>
-      </c>
       <c r="V37">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W37">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X37">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y37">
         <v>235</v>
       </c>
       <c r="Z37">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA37">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB37">
         <v>96</v>
       </c>
       <c r="AC37">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AD37">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="AE37">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF37">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AG37">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH37">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:34">
@@ -4448,82 +4451,82 @@
         <v>106</v>
       </c>
       <c r="I38">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="J38">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="K38">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="L38">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="M38">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="N38">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="O38">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="P38">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="Q38">
-        <v>1555</v>
+        <v>1538</v>
       </c>
       <c r="R38">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="S38">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="T38">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="U38">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="V38">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W38">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X38">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="Y38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z38">
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="AB38">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AC38">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="AD38">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="AE38">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="AF38">
         <v>523</v>
       </c>
       <c r="AG38">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="AH38">
-        <v>1229</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="39" spans="1:34">
@@ -4546,13 +4549,13 @@
         <v>107</v>
       </c>
       <c r="I39">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="J39">
         <v>621</v>
       </c>
       <c r="K39">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L39">
         <v>539</v>
@@ -4561,28 +4564,28 @@
         <v>351</v>
       </c>
       <c r="N39">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="O39">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P39">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q39">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="R39">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="S39">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="T39">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="U39">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="V39">
         <v>616</v>
@@ -4600,7 +4603,7 @@
         <v>701</v>
       </c>
       <c r="AA39">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AB39">
         <v>729</v>
@@ -4609,19 +4612,19 @@
         <v>606</v>
       </c>
       <c r="AD39">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="AE39">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AF39">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AG39">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AH39">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:34">
@@ -4644,82 +4647,82 @@
         <v>108</v>
       </c>
       <c r="I40">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J40">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="K40">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="L40">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M40">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="N40">
         <v>151</v>
       </c>
       <c r="O40">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P40">
-        <v>265</v>
+        <v>382</v>
       </c>
       <c r="Q40">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="R40">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="S40">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="T40">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="U40">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="V40">
-        <v>489</v>
+        <v>605</v>
       </c>
       <c r="W40">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X40">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Y40">
-        <v>9585</v>
+        <v>8864</v>
       </c>
       <c r="Z40">
         <v>739</v>
       </c>
       <c r="AA40">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AB40">
         <v>794</v>
       </c>
       <c r="AC40">
-        <v>732</v>
+        <v>846</v>
       </c>
       <c r="AD40">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="AE40">
-        <v>425</v>
+        <v>903</v>
       </c>
       <c r="AF40">
         <v>757</v>
       </c>
       <c r="AG40">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AH40">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:34">
@@ -4742,82 +4745,82 @@
         <v>109</v>
       </c>
       <c r="I41">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="J41">
         <v>1797</v>
       </c>
       <c r="K41">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="L41">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="M41">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="N41">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="O41">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="P41">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="Q41">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="R41">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="S41">
         <v>1732</v>
       </c>
       <c r="T41">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="U41">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="V41">
-        <v>946</v>
+        <v>1265</v>
       </c>
       <c r="W41">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="X41">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Y41">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="Z41">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA41">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="AB41">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="AC41">
-        <v>2096</v>
+        <v>2081</v>
       </c>
       <c r="AD41">
-        <v>1598</v>
+        <v>1559</v>
       </c>
       <c r="AE41">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="AF41">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AG41">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="AH41">
-        <v>1514</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="42" spans="1:34">
@@ -4846,7 +4849,7 @@
         <v>41</v>
       </c>
       <c r="K42">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L42">
         <v>166</v>
@@ -4867,7 +4870,7 @@
         <v>107</v>
       </c>
       <c r="R42">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S42">
         <v>148</v>
@@ -4882,7 +4885,7 @@
         <v>52</v>
       </c>
       <c r="W42">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X42">
         <v>55</v>
@@ -4900,7 +4903,7 @@
         <v>177</v>
       </c>
       <c r="AC42">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AD42">
         <v>84</v>
@@ -4938,43 +4941,43 @@
         <v>111</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K43">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="L43">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M43">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="N43">
         <v>968</v>
       </c>
       <c r="O43">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P43">
         <v>348</v>
       </c>
       <c r="Q43">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="T43">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="U43">
         <v>272</v>
       </c>
       <c r="V43">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="W43">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="X43">
         <v>257</v>
@@ -4992,7 +4995,7 @@
         <v>141</v>
       </c>
       <c r="AD43">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AE43">
         <v>94</v>
@@ -5004,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="AH43">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:34">
@@ -5027,82 +5030,82 @@
         <v>112</v>
       </c>
       <c r="I44">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="J44">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="K44">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="L44">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="O44">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="P44">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="Q44">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="R44">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="S44">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="T44">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="U44">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="V44">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="W44">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="X44">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y44">
-        <v>478</v>
+        <v>17816</v>
       </c>
       <c r="Z44">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA44">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AB44">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AC44">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="AD44">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="AE44">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="AF44">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="AG44">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="AH44">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:34">
@@ -5125,52 +5128,52 @@
         <v>113</v>
       </c>
       <c r="I45">
-        <v>1933</v>
+        <v>1891</v>
       </c>
       <c r="J45">
-        <v>2304</v>
+        <v>2293</v>
       </c>
       <c r="K45">
-        <v>2044</v>
+        <v>2009</v>
       </c>
       <c r="L45">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="M45">
-        <v>1438</v>
+        <v>1416</v>
       </c>
       <c r="N45">
-        <v>1884</v>
+        <v>1872</v>
       </c>
       <c r="O45">
-        <v>1853</v>
+        <v>1843</v>
       </c>
       <c r="P45">
-        <v>2722</v>
+        <v>2699</v>
       </c>
       <c r="Q45">
-        <v>2663</v>
+        <v>2603</v>
       </c>
       <c r="R45">
-        <v>1675</v>
+        <v>1644</v>
       </c>
       <c r="S45">
-        <v>2804</v>
+        <v>2773</v>
       </c>
       <c r="T45">
-        <v>2028</v>
+        <v>2006</v>
       </c>
       <c r="U45">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="V45">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="W45">
-        <v>1216</v>
+        <v>1191</v>
       </c>
       <c r="X45">
-        <v>2361</v>
+        <v>2282</v>
       </c>
       <c r="Y45">
         <v>1376</v>
@@ -5179,28 +5182,28 @@
         <v>2560</v>
       </c>
       <c r="AA45">
-        <v>1515</v>
+        <v>1458</v>
       </c>
       <c r="AB45">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="AC45">
-        <v>1398</v>
+        <v>1381</v>
       </c>
       <c r="AD45">
-        <v>1483</v>
+        <v>1446</v>
       </c>
       <c r="AE45">
-        <v>2181</v>
+        <v>2145</v>
       </c>
       <c r="AF45">
         <v>1201</v>
       </c>
       <c r="AG45">
-        <v>1639</v>
+        <v>1624</v>
       </c>
       <c r="AH45">
-        <v>2013</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="46" spans="1:34">
@@ -5223,7 +5226,7 @@
         <v>114</v>
       </c>
       <c r="I46">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J46">
         <v>118</v>
@@ -5238,7 +5241,7 @@
         <v>107</v>
       </c>
       <c r="N46">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O46">
         <v>96</v>
@@ -5250,13 +5253,13 @@
         <v>41</v>
       </c>
       <c r="R46">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S46">
         <v>109</v>
       </c>
       <c r="T46">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U46">
         <v>56</v>
@@ -5277,7 +5280,7 @@
         <v>263</v>
       </c>
       <c r="AA46">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB46">
         <v>211</v>
@@ -5286,7 +5289,7 @@
         <v>37</v>
       </c>
       <c r="AD46">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE46">
         <v>62</v>
@@ -5298,7 +5301,7 @@
         <v>106</v>
       </c>
       <c r="AH46">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:34">
@@ -5336,19 +5339,19 @@
         <v>122</v>
       </c>
       <c r="N47">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O47">
         <v>90</v>
       </c>
       <c r="P47">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>235</v>
       </c>
       <c r="R47">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S47">
         <v>174</v>
@@ -5384,10 +5387,10 @@
         <v>273</v>
       </c>
       <c r="AD47">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE47">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF47">
         <v>141</v>
@@ -5419,52 +5422,52 @@
         <v>116</v>
       </c>
       <c r="I48">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J48">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K48">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L48">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M48">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="N48">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="O48">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="P48">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="Q48">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="R48">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="S48">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T48">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="U48">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V48">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="W48">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X48">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y48">
         <v>729</v>
@@ -5473,28 +5476,28 @@
         <v>289</v>
       </c>
       <c r="AA48">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AB48">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AC48">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AD48">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AE48">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AF48">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AG48">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="AH48">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" spans="1:34">
@@ -5517,31 +5520,31 @@
         <v>117</v>
       </c>
       <c r="I49">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J49">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K49">
         <v>129</v>
       </c>
       <c r="L49">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M49">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N49">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O49">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P49">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q49">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R49">
         <v>103</v>
@@ -5550,37 +5553,37 @@
         <v>153</v>
       </c>
       <c r="T49">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U49">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="V49">
         <v>117</v>
       </c>
       <c r="W49">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y49">
-        <v>2390</v>
+        <v>2270</v>
       </c>
       <c r="Z49">
         <v>102</v>
       </c>
       <c r="AA49">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB49">
         <v>163</v>
       </c>
       <c r="AC49">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="AD49">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE49">
         <v>175</v>
@@ -5592,7 +5595,7 @@
         <v>150</v>
       </c>
       <c r="AH49">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:34">
@@ -5615,82 +5618,82 @@
         <v>118</v>
       </c>
       <c r="I50">
+        <v>1199</v>
+      </c>
+      <c r="J50">
+        <v>1180</v>
+      </c>
+      <c r="K50">
+        <v>810</v>
+      </c>
+      <c r="L50">
+        <v>186</v>
+      </c>
+      <c r="M50">
+        <v>483</v>
+      </c>
+      <c r="N50">
+        <v>246</v>
+      </c>
+      <c r="O50">
+        <v>752</v>
+      </c>
+      <c r="P50">
+        <v>114</v>
+      </c>
+      <c r="Q50">
         <v>1200</v>
       </c>
-      <c r="J50">
-        <v>1198</v>
-      </c>
-      <c r="K50">
-        <v>827</v>
-      </c>
-      <c r="L50">
-        <v>197</v>
-      </c>
-      <c r="M50">
-        <v>486</v>
-      </c>
-      <c r="N50">
-        <v>242</v>
-      </c>
-      <c r="O50">
-        <v>774</v>
-      </c>
-      <c r="P50">
-        <v>257</v>
-      </c>
-      <c r="Q50">
-        <v>1223</v>
-      </c>
       <c r="R50">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="S50">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="T50">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="U50">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="V50">
         <v>787</v>
       </c>
       <c r="W50">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="X50">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="Y50">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="Z50">
         <v>757</v>
       </c>
       <c r="AA50">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AB50">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="AC50">
-        <v>904</v>
+        <v>844</v>
       </c>
       <c r="AD50">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="AE50">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="AF50">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="AG50">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="AH50">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:34">
@@ -5743,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="X51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y51">
         <v>104</v>
@@ -5802,7 +5805,7 @@
         <v>8</v>
       </c>
       <c r="L52">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M52">
         <v>117</v>
@@ -5817,7 +5820,7 @@
         <v>74</v>
       </c>
       <c r="Q52">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R52">
         <v>31</v>
@@ -5835,7 +5838,7 @@
         <v>51</v>
       </c>
       <c r="W52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X52">
         <v>42</v>
@@ -5897,43 +5900,43 @@
         <v>253</v>
       </c>
       <c r="K53">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L53">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M53">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N53">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="O53">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P53">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q53">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="R53">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="S53">
         <v>419</v>
       </c>
       <c r="T53">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U53">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V53">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="W53">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="X53">
         <v>742</v>
@@ -5951,22 +5954,22 @@
         <v>521</v>
       </c>
       <c r="AC53">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AD53">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AE53">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AF53">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="AG53">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AH53">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:34">
@@ -5986,16 +5989,16 @@
         <v>122</v>
       </c>
       <c r="K54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N54">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O54">
         <v>7</v>
       </c>
       <c r="P54">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -6004,16 +6007,16 @@
         <v>37</v>
       </c>
       <c r="V54">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y54">
         <v>27</v>
       </c>
       <c r="AE54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG54">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:34">
@@ -6134,49 +6137,49 @@
         <v>124</v>
       </c>
       <c r="I56">
-        <v>2708</v>
+        <v>2688</v>
       </c>
       <c r="J56">
         <v>2430</v>
       </c>
       <c r="K56">
-        <v>2192</v>
+        <v>2165</v>
       </c>
       <c r="L56">
-        <v>1470</v>
+        <v>1425</v>
       </c>
       <c r="M56">
-        <v>2749</v>
+        <v>2731</v>
       </c>
       <c r="N56">
-        <v>4304</v>
+        <v>4293</v>
       </c>
       <c r="O56">
         <v>820</v>
       </c>
       <c r="P56">
-        <v>1779</v>
+        <v>1752</v>
       </c>
       <c r="Q56">
-        <v>2871</v>
+        <v>2841</v>
       </c>
       <c r="R56">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="S56">
-        <v>2083</v>
+        <v>2074</v>
       </c>
       <c r="T56">
         <v>2150</v>
       </c>
       <c r="U56">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="V56">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="W56">
-        <v>2447</v>
+        <v>2429</v>
       </c>
       <c r="X56">
         <v>1527</v>
@@ -6188,25 +6191,25 @@
         <v>343</v>
       </c>
       <c r="AA56">
-        <v>3765</v>
+        <v>3754</v>
       </c>
       <c r="AB56">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="AC56">
-        <v>2073</v>
+        <v>1992</v>
       </c>
       <c r="AD56">
-        <v>1035</v>
+        <v>989</v>
       </c>
       <c r="AE56">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="AF56">
         <v>1745</v>
       </c>
       <c r="AG56">
-        <v>3630</v>
+        <v>3611</v>
       </c>
       <c r="AH56">
         <v>2902</v>
@@ -6232,7 +6235,7 @@
         <v>136</v>
       </c>
       <c r="J57">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K57">
         <v>110</v>
@@ -6244,64 +6247,64 @@
         <v>183</v>
       </c>
       <c r="N57">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O57">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P57">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q57">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R57">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="S57">
         <v>107</v>
       </c>
       <c r="T57">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="U57">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V57">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="W57">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X57">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Y57">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="Z57">
         <v>237</v>
       </c>
       <c r="AA57">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB57">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AC57">
         <v>140</v>
       </c>
       <c r="AD57">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE57">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF57">
         <v>392</v>
       </c>
       <c r="AG57">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AH57">
         <v>276</v>
@@ -6324,52 +6327,52 @@
         <v>126</v>
       </c>
       <c r="I58">
-        <v>1441</v>
+        <v>1430</v>
       </c>
       <c r="J58">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="K58">
-        <v>1599</v>
+        <v>1585</v>
       </c>
       <c r="L58">
         <v>2075</v>
       </c>
       <c r="M58">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="N58">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="O58">
-        <v>2584</v>
+        <v>2571</v>
       </c>
       <c r="P58">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="Q58">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="R58">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="S58">
         <v>545</v>
       </c>
       <c r="T58">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="U58">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="V58">
         <v>792</v>
       </c>
       <c r="W58">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="X58">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="Y58">
         <v>650</v>
@@ -6384,22 +6387,22 @@
         <v>1677</v>
       </c>
       <c r="AC58">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="AD58">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="AE58">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="AF58">
         <v>2434</v>
       </c>
       <c r="AG58">
-        <v>1686</v>
+        <v>1667</v>
       </c>
       <c r="AH58">
-        <v>1472</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="59" spans="1:34">
@@ -6428,13 +6431,13 @@
         <v>220</v>
       </c>
       <c r="L59">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M59">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N59">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O59">
         <v>111</v>
@@ -6449,22 +6452,22 @@
         <v>141</v>
       </c>
       <c r="S59">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="T59">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="U59">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="V59">
         <v>146</v>
       </c>
       <c r="W59">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="X59">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Y59">
         <v>256</v>
@@ -6517,7 +6520,7 @@
         <v>128</v>
       </c>
       <c r="I60">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J60">
         <v>219</v>
@@ -6532,7 +6535,7 @@
         <v>74</v>
       </c>
       <c r="N60">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O60">
         <v>107</v>
@@ -6544,13 +6547,13 @@
         <v>113</v>
       </c>
       <c r="R60">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S60">
         <v>97</v>
       </c>
       <c r="T60">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="U60">
         <v>119</v>
@@ -6559,19 +6562,19 @@
         <v>269</v>
       </c>
       <c r="W60">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X60">
         <v>106</v>
       </c>
       <c r="Y60">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="Z60">
         <v>124</v>
       </c>
       <c r="AA60">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AB60">
         <v>193</v>
@@ -6628,6 +6631,9 @@
       <c r="B62" t="s">
         <v>57</v>
       </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
       <c r="F62">
         <v>24</v>
       </c>
@@ -6638,52 +6644,52 @@
         <v>130</v>
       </c>
       <c r="I62">
-        <v>1609</v>
+        <v>1579</v>
       </c>
       <c r="J62">
         <v>809</v>
       </c>
       <c r="K62">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="L62">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="M62">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="N62">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="O62">
-        <v>1041</v>
+        <v>1014</v>
       </c>
       <c r="P62">
-        <v>2385</v>
+        <v>2377</v>
       </c>
       <c r="Q62">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="R62">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="S62">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="T62">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="U62">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="V62">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="W62">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="X62">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Y62">
         <v>679</v>
@@ -6692,28 +6698,28 @@
         <v>1366</v>
       </c>
       <c r="AA62">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="AB62">
         <v>642</v>
       </c>
       <c r="AC62">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="AD62">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="AE62">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="AF62">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="AG62">
-        <v>1499</v>
+        <v>1468</v>
       </c>
       <c r="AH62">
-        <v>1108</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="63" spans="1:34">
@@ -6733,7 +6739,7 @@
         <v>131</v>
       </c>
       <c r="I63">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J63">
         <v>128</v>
@@ -6745,13 +6751,13 @@
         <v>28</v>
       </c>
       <c r="M63">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N63">
         <v>93</v>
       </c>
       <c r="O63">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="P63">
         <v>174</v>
@@ -6760,7 +6766,7 @@
         <v>87</v>
       </c>
       <c r="R63">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S63">
         <v>72</v>
@@ -6769,7 +6775,7 @@
         <v>137</v>
       </c>
       <c r="U63">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V63">
         <v>330</v>
@@ -6781,13 +6787,13 @@
         <v>61</v>
       </c>
       <c r="Y63">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Z63">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA63">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB63">
         <v>35</v>
@@ -6799,7 +6805,7 @@
         <v>109</v>
       </c>
       <c r="AE63">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AF63">
         <v>16</v>
@@ -6834,40 +6840,40 @@
         <v>498</v>
       </c>
       <c r="J64">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K64">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="L64">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M64">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="N64">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="O64">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P64">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="Q64">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="R64">
         <v>399</v>
       </c>
       <c r="S64">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="T64">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="U64">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="V64">
         <v>535</v>
@@ -6876,10 +6882,10 @@
         <v>745</v>
       </c>
       <c r="X64">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Y64">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="Z64">
         <v>721</v>
@@ -6891,13 +6897,13 @@
         <v>988</v>
       </c>
       <c r="AC64">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="AD64">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="AE64">
-        <v>683</v>
+        <v>804</v>
       </c>
       <c r="AF64">
         <v>400</v>
@@ -6906,7 +6912,7 @@
         <v>425</v>
       </c>
       <c r="AH64">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="65" spans="1:34">
@@ -6932,7 +6938,7 @@
         <v>89</v>
       </c>
       <c r="K65">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L65">
         <v>12</v>
@@ -6947,16 +6953,16 @@
         <v>40</v>
       </c>
       <c r="P65">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="Q65">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R65">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S65">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T65">
         <v>48</v>
@@ -7030,25 +7036,25 @@
         <v>210</v>
       </c>
       <c r="M66">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N66">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O66">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P66">
         <v>122</v>
       </c>
       <c r="Q66">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R66">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S66">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T66">
         <v>109</v>
@@ -7063,22 +7069,22 @@
         <v>41</v>
       </c>
       <c r="Y66">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="Z66">
         <v>146</v>
       </c>
       <c r="AA66">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB66">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AC66">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AD66">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AE66">
         <v>49</v>
@@ -7087,7 +7093,7 @@
         <v>201</v>
       </c>
       <c r="AG66">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH66">
         <v>64</v>
@@ -7110,40 +7116,40 @@
         <v>135</v>
       </c>
       <c r="I67">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J67">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="K67">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="L67">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M67">
         <v>883</v>
       </c>
       <c r="N67">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O67">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="P67">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="Q67">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="R67">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S67">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="T67">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="U67">
         <v>284</v>
@@ -7152,40 +7158,40 @@
         <v>409</v>
       </c>
       <c r="W67">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="X67">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="Y67">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="Z67">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA67">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AB67">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AC67">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="AD67">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="AE67">
-        <v>279</v>
+        <v>567</v>
       </c>
       <c r="AF67">
         <v>488</v>
       </c>
       <c r="AG67">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AH67">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:34">
@@ -7205,16 +7211,16 @@
         <v>136</v>
       </c>
       <c r="I68">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J68">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K68">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L68">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M68">
         <v>228</v>
@@ -7223,25 +7229,25 @@
         <v>379</v>
       </c>
       <c r="O68">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P68">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q68">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R68">
         <v>335</v>
       </c>
       <c r="S68">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T68">
         <v>70</v>
       </c>
       <c r="U68">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V68">
         <v>77</v>
@@ -7250,7 +7256,7 @@
         <v>194</v>
       </c>
       <c r="X68">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y68">
         <v>413</v>
@@ -7259,7 +7265,7 @@
         <v>188</v>
       </c>
       <c r="AA68">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB68">
         <v>312</v>
@@ -7271,13 +7277,13 @@
         <v>314</v>
       </c>
       <c r="AE68">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AF68">
         <v>138</v>
       </c>
       <c r="AG68">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AH68">
         <v>204</v>
@@ -7300,49 +7306,49 @@
         <v>137</v>
       </c>
       <c r="I69">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J69">
         <v>601</v>
       </c>
       <c r="K69">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L69">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M69">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="N69">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="O69">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="P69">
         <v>616</v>
       </c>
       <c r="Q69">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="R69">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S69">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T69">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="U69">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="V69">
         <v>402</v>
       </c>
       <c r="W69">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="X69">
         <v>346</v>
@@ -7354,28 +7360,28 @@
         <v>418</v>
       </c>
       <c r="AA69">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB69">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AC69">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="AD69">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="AE69">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AF69">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG69">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AH69">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="70" spans="1:34">
@@ -7407,22 +7413,22 @@
         <v>44</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M70">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N70">
         <v>60</v>
       </c>
       <c r="O70">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="P70">
         <v>58</v>
       </c>
       <c r="Q70">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R70">
         <v>628</v>
@@ -7431,7 +7437,7 @@
         <v>212</v>
       </c>
       <c r="T70">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="U70">
         <v>7</v>
@@ -7443,10 +7449,10 @@
         <v>94</v>
       </c>
       <c r="X70">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Y70">
-        <v>17</v>
+        <v>4905</v>
       </c>
       <c r="Z70">
         <v>215</v>
@@ -7470,7 +7476,7 @@
         <v>169</v>
       </c>
       <c r="AH70">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71" spans="1:34">
@@ -7493,82 +7499,82 @@
         <v>139</v>
       </c>
       <c r="I71">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="J71">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K71">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="L71">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M71">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N71">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O71">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="P71">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="Q71">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="R71">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="S71">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="T71">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="U71">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="V71">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W71">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="X71">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="Y71">
-        <v>3210</v>
+        <v>3203</v>
       </c>
       <c r="Z71">
         <v>915</v>
       </c>
       <c r="AA71">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AB71">
-        <v>2078</v>
+        <v>2070</v>
       </c>
       <c r="AC71">
         <v>1180</v>
       </c>
       <c r="AD71">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="AE71">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF71">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AG71">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="AH71">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="72" spans="1:34">
@@ -7612,7 +7618,7 @@
         <v>49</v>
       </c>
       <c r="P72">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q72">
         <v>30</v>
@@ -7627,7 +7633,7 @@
         <v>28</v>
       </c>
       <c r="U72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V72">
         <v>23</v>
@@ -7698,13 +7704,13 @@
         <v>38</v>
       </c>
       <c r="L73">
-        <v>1946</v>
+        <v>1913</v>
       </c>
       <c r="M73">
-        <v>414</v>
+        <v>293</v>
       </c>
       <c r="N73">
-        <v>3173</v>
+        <v>3131</v>
       </c>
       <c r="O73">
         <v>66</v>
@@ -7719,13 +7725,13 @@
         <v>2</v>
       </c>
       <c r="T73">
-        <v>1616</v>
+        <v>1563</v>
       </c>
       <c r="U73">
-        <v>1251</v>
+        <v>1216</v>
       </c>
       <c r="V73">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="X73">
         <v>42</v>
@@ -7737,7 +7743,7 @@
         <v>24</v>
       </c>
       <c r="AA73">
-        <v>423</v>
+        <v>312</v>
       </c>
       <c r="AB73">
         <v>50</v>
@@ -7749,13 +7755,13 @@
         <v>50</v>
       </c>
       <c r="AF73">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="AG73">
-        <v>530</v>
+        <v>477</v>
       </c>
       <c r="AH73">
-        <v>2604</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="74" spans="1:34">
@@ -7778,28 +7784,28 @@
         <v>142</v>
       </c>
       <c r="I74">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J74">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K74">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L74">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M74">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N74">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P74">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q74">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R74">
         <v>5</v>
@@ -7808,16 +7814,16 @@
         <v>183</v>
       </c>
       <c r="T74">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U74">
         <v>112</v>
       </c>
       <c r="V74">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W74">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y74">
         <v>63</v>
@@ -7829,19 +7835,19 @@
         <v>8</v>
       </c>
       <c r="AB74">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE74">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF74">
         <v>107</v>
       </c>
       <c r="AG74">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AH74">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:34">
@@ -7864,31 +7870,31 @@
         <v>143</v>
       </c>
       <c r="I75">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J75">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K75">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="L75">
         <v>475</v>
       </c>
       <c r="M75">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N75">
         <v>678</v>
       </c>
       <c r="O75">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P75">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q75">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="R75">
         <v>434</v>
@@ -7897,49 +7903,49 @@
         <v>563</v>
       </c>
       <c r="T75">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U75">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="V75">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W75">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X75">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Y75">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="Z75">
         <v>562</v>
       </c>
       <c r="AA75">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AB75">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AC75">
         <v>175</v>
       </c>
       <c r="AD75">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AE75">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AF75">
         <v>391</v>
       </c>
       <c r="AG75">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AH75">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:34">
@@ -8036,7 +8042,7 @@
         <v>145</v>
       </c>
       <c r="I77">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="J77">
         <v>195</v>
@@ -8045,13 +8051,13 @@
         <v>135</v>
       </c>
       <c r="L77">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="M77">
         <v>217</v>
       </c>
       <c r="N77">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O77">
         <v>253</v>
@@ -8063,7 +8069,7 @@
         <v>141</v>
       </c>
       <c r="R77">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="S77">
         <v>249</v>
@@ -8108,7 +8114,7 @@
         <v>82</v>
       </c>
       <c r="AG77">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH77">
         <v>342</v>
@@ -8134,7 +8140,7 @@
         <v>146</v>
       </c>
       <c r="I78">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="J78">
         <v>595</v>
@@ -8143,40 +8149,40 @@
         <v>1318</v>
       </c>
       <c r="L78">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="M78">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N78">
-        <v>1710</v>
+        <v>1699</v>
       </c>
       <c r="O78">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="P78">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="Q78">
-        <v>1033</v>
+        <v>915</v>
       </c>
       <c r="R78">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="S78">
         <v>944</v>
       </c>
       <c r="T78">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="U78">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="V78">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="W78">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="X78">
         <v>849</v>
@@ -8188,16 +8194,16 @@
         <v>334</v>
       </c>
       <c r="AA78">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="AB78">
         <v>899</v>
       </c>
       <c r="AC78">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="AD78">
-        <v>1760</v>
+        <v>1717</v>
       </c>
       <c r="AE78">
         <v>1309</v>
@@ -8206,10 +8212,10 @@
         <v>1058</v>
       </c>
       <c r="AG78">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="AH78">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="79" spans="1:34">
@@ -8232,43 +8238,43 @@
         <v>147</v>
       </c>
       <c r="I79">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J79">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="K79">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="L79">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="M79">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="N79">
-        <v>1155</v>
+        <v>1138</v>
       </c>
       <c r="O79">
         <v>1124</v>
       </c>
       <c r="P79">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="Q79">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="R79">
         <v>1116</v>
       </c>
       <c r="S79">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="T79">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="U79">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="V79">
         <v>719</v>
@@ -8286,16 +8292,16 @@
         <v>1193</v>
       </c>
       <c r="AA79">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AB79">
         <v>1511</v>
       </c>
       <c r="AC79">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AD79">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE79">
         <v>1058</v>
@@ -8330,82 +8336,82 @@
         <v>148</v>
       </c>
       <c r="I80">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="J80">
         <v>3042</v>
       </c>
       <c r="K80">
-        <v>1561</v>
+        <v>1539</v>
       </c>
       <c r="L80">
-        <v>1395</v>
+        <v>1377</v>
       </c>
       <c r="M80">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="N80">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="O80">
-        <v>2062</v>
+        <v>2034</v>
       </c>
       <c r="P80">
-        <v>2389</v>
+        <v>2716</v>
       </c>
       <c r="Q80">
-        <v>2787</v>
+        <v>2738</v>
       </c>
       <c r="R80">
-        <v>1320</v>
+        <v>1306</v>
       </c>
       <c r="S80">
-        <v>1637</v>
+        <v>1618</v>
       </c>
       <c r="T80">
-        <v>1728</v>
+        <v>1706</v>
       </c>
       <c r="U80">
         <v>1333</v>
       </c>
       <c r="V80">
-        <v>1583</v>
+        <v>1923</v>
       </c>
       <c r="W80">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="X80">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="Y80">
-        <v>3513</v>
+        <v>2433</v>
       </c>
       <c r="Z80">
         <v>2836</v>
       </c>
       <c r="AA80">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="AB80">
         <v>1797</v>
       </c>
       <c r="AC80">
-        <v>1396</v>
+        <v>2105</v>
       </c>
       <c r="AD80">
-        <v>1843</v>
+        <v>1774</v>
       </c>
       <c r="AE80">
-        <v>2118</v>
+        <v>2792</v>
       </c>
       <c r="AF80">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="AG80">
-        <v>1121</v>
+        <v>1100</v>
       </c>
       <c r="AH80">
-        <v>2779</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="81" spans="1:34">
@@ -8428,52 +8434,52 @@
         <v>149</v>
       </c>
       <c r="I81">
-        <v>4384</v>
+        <v>4355</v>
       </c>
       <c r="J81">
-        <v>8124</v>
+        <v>8112</v>
       </c>
       <c r="K81">
-        <v>4239</v>
+        <v>4225</v>
       </c>
       <c r="L81">
-        <v>8918</v>
+        <v>8810</v>
       </c>
       <c r="M81">
-        <v>10252</v>
+        <v>10233</v>
       </c>
       <c r="N81">
-        <v>9696</v>
+        <v>9658</v>
       </c>
       <c r="O81">
-        <v>5357</v>
+        <v>5349</v>
       </c>
       <c r="P81">
-        <v>3987</v>
+        <v>3965</v>
       </c>
       <c r="Q81">
-        <v>5012</v>
+        <v>4974</v>
       </c>
       <c r="R81">
-        <v>3686</v>
+        <v>3635</v>
       </c>
       <c r="S81">
-        <v>3634</v>
+        <v>3597</v>
       </c>
       <c r="T81">
-        <v>4328</v>
+        <v>4306</v>
       </c>
       <c r="U81">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="V81">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="W81">
-        <v>3316</v>
+        <v>3299</v>
       </c>
       <c r="X81">
-        <v>5131</v>
+        <v>5127</v>
       </c>
       <c r="Y81">
         <v>2306</v>
@@ -8482,28 +8488,28 @@
         <v>4051</v>
       </c>
       <c r="AA81">
-        <v>4597</v>
+        <v>4569</v>
       </c>
       <c r="AB81">
-        <v>3639</v>
+        <v>3626</v>
       </c>
       <c r="AC81">
-        <v>3574</v>
+        <v>3548</v>
       </c>
       <c r="AD81">
-        <v>3147</v>
+        <v>3085</v>
       </c>
       <c r="AE81">
-        <v>4828</v>
+        <v>4808</v>
       </c>
       <c r="AF81">
-        <v>2923</v>
+        <v>2913</v>
       </c>
       <c r="AG81">
-        <v>2671</v>
+        <v>2654</v>
       </c>
       <c r="AH81">
-        <v>3301</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="82" spans="1:34">
@@ -8526,13 +8532,13 @@
         <v>150</v>
       </c>
       <c r="I82">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J82">
         <v>1365</v>
       </c>
       <c r="K82">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="L82">
         <v>487</v>
@@ -8550,16 +8556,16 @@
         <v>938</v>
       </c>
       <c r="Q82">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="R82">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="S82">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="T82">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="U82">
         <v>689</v>
@@ -8568,7 +8574,7 @@
         <v>518</v>
       </c>
       <c r="W82">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="X82">
         <v>677</v>
@@ -8580,16 +8586,16 @@
         <v>544</v>
       </c>
       <c r="AA82">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AB82">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="AC82">
         <v>1336</v>
       </c>
       <c r="AD82">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="AE82">
         <v>628</v>
